--- a/capiq_data/in_process_data/IQ813574.xlsx
+++ b/capiq_data/in_process_data/IQ813574.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816C65B-7E1A-4E6C-AAB4-7AEF680BAFCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BEE973-0C11-4EFA-99C8-7E7D9D8791A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"970872f6-15e7-4a5f-bcd7-9b7591e9a889"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"675c65ba-11c0-456b-a5dd-3423032afb4b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -633,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,37 +847,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>53.505000000000003</v>
+        <v>8.407</v>
       </c>
       <c r="D2">
-        <v>443.52600000000001</v>
+        <v>82.631</v>
       </c>
       <c r="E2">
-        <v>150.27500000000001</v>
+        <v>33.777000000000001</v>
       </c>
       <c r="F2">
-        <v>289.32100000000003</v>
+        <v>39.381</v>
       </c>
       <c r="G2">
-        <v>928.65800000000002</v>
+        <v>80.668999999999997</v>
       </c>
       <c r="H2">
-        <v>2056.59</v>
+        <v>279.93200000000002</v>
       </c>
       <c r="I2">
-        <v>177.87899999999999</v>
+        <v>38.83</v>
       </c>
       <c r="J2">
-        <v>202.61</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>180.881</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -766,81 +886,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>605.98500000000001</v>
+        <v>102.358</v>
       </c>
       <c r="O2">
-        <v>942.846</v>
+        <v>116.581</v>
       </c>
       <c r="P2">
-        <v>526.58500000000004</v>
+        <v>5.7649999999999997</v>
       </c>
       <c r="Q2">
-        <v>85.447000000000003</v>
+        <v>3.7749999999999999</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1113.7439999999999</v>
+        <v>163.351</v>
       </c>
       <c r="U2">
-        <v>663.66</v>
+        <v>4.9740000000000002</v>
       </c>
       <c r="V2">
-        <v>43.460999999999999</v>
+        <v>17.263999999999999</v>
       </c>
       <c r="W2">
-        <v>-1.5940000000000001</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>64.162999999999997</v>
+        <v>-11.757</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>2.976</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>53.505000000000003</v>
+        <v>8.407</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.8460000000000001</v>
       </c>
       <c r="D3">
-        <v>456.38200000000001</v>
+        <v>80.674000000000007</v>
       </c>
       <c r="E3">
-        <v>138.51400000000001</v>
+        <v>38.494</v>
       </c>
       <c r="F3">
-        <v>288.05</v>
+        <v>36.067</v>
       </c>
       <c r="G3">
-        <v>1569.712</v>
+        <v>65.981999999999999</v>
       </c>
       <c r="H3">
-        <v>3052.4180000000001</v>
+        <v>262.03699999999998</v>
       </c>
       <c r="I3">
-        <v>200.179</v>
+        <v>37.063000000000002</v>
       </c>
       <c r="J3">
-        <v>301.31900000000002</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>188.96100000000001</v>
+        <v>59</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -849,81 +969,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1237.9179999999999</v>
+        <v>98.781000000000006</v>
       </c>
       <c r="O3">
-        <v>1686.51</v>
+        <v>112.36</v>
       </c>
       <c r="P3">
-        <v>570.05100000000004</v>
+        <v>63.972999999999999</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-4.4240000000000004</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1365.9079999999999</v>
+        <v>149.67699999999999</v>
       </c>
       <c r="U3">
-        <v>1329.0650000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>20.361999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-23.352</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>47.789000000000001</v>
+        <v>5.8460000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>58.576999999999998</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="D4">
-        <v>519.755</v>
+        <v>102.699</v>
       </c>
       <c r="E4">
-        <v>167.45400000000001</v>
+        <v>39.39</v>
       </c>
       <c r="F4">
-        <v>328.31599999999997</v>
+        <v>44.048000000000002</v>
       </c>
       <c r="G4">
-        <v>1847.9749999999999</v>
+        <v>136.49799999999999</v>
       </c>
       <c r="H4">
-        <v>3350.5309999999999</v>
+        <v>458.60399999999998</v>
       </c>
       <c r="I4">
-        <v>20.053000000000001</v>
+        <v>18.962</v>
       </c>
       <c r="J4">
-        <v>268.21699999999998</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>270.745</v>
+        <v>73</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -932,164 +1052,164 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1444.364</v>
+        <v>132.48400000000001</v>
       </c>
       <c r="O4">
-        <v>1878.856</v>
+        <v>148.72999999999999</v>
       </c>
       <c r="P4">
-        <v>624.76400000000001</v>
+        <v>77.712999999999994</v>
       </c>
       <c r="Q4">
-        <v>25.22</v>
+        <v>5.5529999999999999</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="S4">
-        <v>3753</v>
+        <v>1700</v>
       </c>
       <c r="T4">
-        <v>1471.675</v>
+        <v>309.87400000000002</v>
       </c>
       <c r="U4">
-        <v>1354.2850000000001</v>
+        <v>6.1029999999999998</v>
       </c>
       <c r="V4">
-        <v>-23.518999999999998</v>
+        <v>23.719000000000001</v>
       </c>
       <c r="W4">
-        <v>-1.6060000000000001</v>
+        <v>-1.4590000000000001</v>
       </c>
       <c r="X4">
-        <v>64.114999999999995</v>
+        <v>10.101000000000001</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.974</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>58.576999999999998</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>63.973999999999997</v>
+        <v>-3.125</v>
       </c>
       <c r="D5">
-        <v>542.77099999999996</v>
+        <v>110.955</v>
       </c>
       <c r="E5">
-        <v>178.45099999999999</v>
+        <v>44.103999999999999</v>
       </c>
       <c r="F5">
-        <v>351.23500000000001</v>
+        <v>49.462000000000003</v>
       </c>
       <c r="G5">
-        <v>1237.579</v>
+        <v>144.63200000000001</v>
       </c>
       <c r="H5">
-        <v>2715.1579999999999</v>
+        <v>464.459</v>
       </c>
       <c r="I5">
-        <v>210.678</v>
+        <v>72.873000000000005</v>
       </c>
       <c r="J5">
-        <v>285.76600000000002</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>311.072</v>
+        <v>63.5</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-44.295000000000002</v>
+        <v>-10.4</v>
       </c>
       <c r="N5">
-        <v>802.38699999999994</v>
+        <v>138.81899999999999</v>
       </c>
       <c r="O5">
-        <v>1262.9870000000001</v>
+        <v>154.36000000000001</v>
       </c>
       <c r="P5">
-        <v>690.74199999999996</v>
+        <v>67.313000000000002</v>
       </c>
       <c r="Q5">
-        <v>-630.33299999999997</v>
+        <v>-5.4459999999999997</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1452.171</v>
+        <v>310.09899999999999</v>
       </c>
       <c r="U5">
-        <v>723.952</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="V5">
-        <v>-605.87800000000004</v>
+        <v>16.077000000000002</v>
       </c>
       <c r="W5">
-        <v>-1.613</v>
+        <v>-1.46</v>
       </c>
       <c r="X5">
-        <v>-11.661</v>
+        <v>-10.949</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.367</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>63.973999999999997</v>
+        <v>-3.125</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>61.180999999999997</v>
+        <v>11.643000000000001</v>
       </c>
       <c r="D6">
-        <v>530.505</v>
+        <v>115.617</v>
       </c>
       <c r="E6">
-        <v>163.667</v>
+        <v>47.691000000000003</v>
       </c>
       <c r="F6">
-        <v>344.57400000000001</v>
+        <v>54.899000000000001</v>
       </c>
       <c r="G6">
-        <v>1190.4100000000001</v>
+        <v>120.011</v>
       </c>
       <c r="H6">
-        <v>2614.3389999999999</v>
+        <v>493.11900000000003</v>
       </c>
       <c r="I6">
-        <v>206.42</v>
+        <v>61.636000000000003</v>
       </c>
       <c r="J6">
-        <v>203.22200000000001</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>225.67599999999999</v>
+        <v>89</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1098,81 +1218,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>807.42399999999998</v>
+        <v>156.959</v>
       </c>
       <c r="O6">
-        <v>1180.5909999999999</v>
+        <v>172.965</v>
       </c>
       <c r="P6">
-        <v>516.86</v>
+        <v>93.292000000000002</v>
       </c>
       <c r="Q6">
-        <v>46.908000000000001</v>
+        <v>26.210999999999999</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1433.748</v>
+        <v>320.154</v>
       </c>
       <c r="U6">
-        <v>770.86</v>
+        <v>26.867999999999999</v>
       </c>
       <c r="V6">
-        <v>291.81200000000001</v>
+        <v>66.546999999999997</v>
       </c>
       <c r="W6">
-        <v>-1.556</v>
+        <v>-1.4610000000000001</v>
       </c>
       <c r="X6">
-        <v>-200.14400000000001</v>
+        <v>22.882999999999999</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>61.180999999999997</v>
+        <v>11.643000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>57.92</v>
+        <v>10.273999999999999</v>
       </c>
       <c r="D7">
-        <v>533.53899999999999</v>
+        <v>115.283</v>
       </c>
       <c r="E7">
-        <v>157.191</v>
+        <v>47.737000000000002</v>
       </c>
       <c r="F7">
-        <v>339.32100000000003</v>
+        <v>51.142000000000003</v>
       </c>
       <c r="G7">
-        <v>1126.499</v>
+        <v>80.073999999999998</v>
       </c>
       <c r="H7">
-        <v>2616.971</v>
+        <v>459.27499999999998</v>
       </c>
       <c r="I7">
-        <v>213.613</v>
+        <v>59.625</v>
       </c>
       <c r="J7">
-        <v>177.846</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>215.71600000000001</v>
+        <v>48</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1181,81 +1301,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>752.37</v>
+        <v>110.38800000000001</v>
       </c>
       <c r="O7">
-        <v>1107.7670000000001</v>
+        <v>129.84399999999999</v>
       </c>
       <c r="P7">
-        <v>476.06700000000001</v>
+        <v>56.058999999999997</v>
       </c>
       <c r="Q7">
-        <v>-35.127000000000002</v>
+        <v>-9.3979999999999997</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1509.204</v>
+        <v>329.43099999999998</v>
       </c>
       <c r="U7">
-        <v>735.73299999999995</v>
+        <v>17.47</v>
       </c>
       <c r="V7">
-        <v>87.22</v>
+        <v>44.337000000000003</v>
       </c>
       <c r="W7">
-        <v>-1.571</v>
+        <v>-1.464</v>
       </c>
       <c r="X7">
-        <v>-56.191000000000003</v>
+        <v>-45.261000000000003</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>5.2960000000000003</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>57.92</v>
+        <v>10.275</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>5.0860000000000003</v>
+        <v>5.048</v>
       </c>
       <c r="D8">
-        <v>597.03200000000004</v>
+        <v>120.971</v>
       </c>
       <c r="E8">
-        <v>183.99100000000001</v>
+        <v>44.314999999999998</v>
       </c>
       <c r="F8">
-        <v>383.96100000000001</v>
+        <v>55.197000000000003</v>
       </c>
       <c r="G8">
-        <v>1248.739</v>
+        <v>79.456999999999994</v>
       </c>
       <c r="H8">
-        <v>2688.143</v>
+        <v>431.41800000000001</v>
       </c>
       <c r="I8">
-        <v>11.817</v>
+        <v>31.712</v>
       </c>
       <c r="J8">
-        <v>236.565</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>215.39099999999999</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1264,164 +1384,164 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>837.28499999999997</v>
+        <v>97.004999999999995</v>
       </c>
       <c r="O8">
-        <v>1242.8</v>
+        <v>109.889</v>
       </c>
       <c r="P8">
-        <v>528.37599999999998</v>
+        <v>29.31</v>
       </c>
       <c r="Q8">
-        <v>45.542000000000002</v>
+        <v>1.724</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="S8">
-        <v>3796</v>
+        <v>1800</v>
       </c>
       <c r="T8">
-        <v>1445.3430000000001</v>
+        <v>321.529</v>
       </c>
       <c r="U8">
-        <v>781.27499999999998</v>
+        <v>19.193999999999999</v>
       </c>
       <c r="V8">
-        <v>53.371000000000002</v>
+        <v>33.506999999999998</v>
       </c>
       <c r="W8">
-        <v>-1.571</v>
+        <v>-1.472</v>
       </c>
       <c r="X8">
-        <v>49.81</v>
+        <v>-26.506</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>4.7110000000000003</v>
       </c>
       <c r="Z8">
-        <v>1.1519999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>5.0860000000000003</v>
+        <v>5.048</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>46.674999999999997</v>
+        <v>14.613</v>
       </c>
       <c r="D9">
-        <v>590.28700000000003</v>
+        <v>127.72799999999999</v>
       </c>
       <c r="E9">
-        <v>180.95699999999999</v>
+        <v>49.204000000000001</v>
       </c>
       <c r="F9">
-        <v>385.89600000000002</v>
+        <v>60.841999999999999</v>
       </c>
       <c r="G9">
-        <v>1336.8810000000001</v>
+        <v>79.805000000000007</v>
       </c>
       <c r="H9">
-        <v>2805.4920000000002</v>
+        <v>429.25299999999999</v>
       </c>
       <c r="I9">
-        <v>298.97000000000003</v>
+        <v>70.27</v>
       </c>
       <c r="J9">
-        <v>285.464</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>209.25399999999999</v>
+        <v>8.5</v>
       </c>
       <c r="L9">
-        <v>-6.1369999999999996</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>-30.08</v>
+        <v>-14.176</v>
       </c>
       <c r="N9">
-        <v>1045.9459999999999</v>
+        <v>81.265000000000001</v>
       </c>
       <c r="O9">
-        <v>1522.472</v>
+        <v>93.629000000000005</v>
       </c>
       <c r="P9">
-        <v>542.25900000000001</v>
+        <v>15.134</v>
       </c>
       <c r="Q9">
-        <v>60.055999999999997</v>
+        <v>-1.8540000000000001</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1283.02</v>
+        <v>335.62400000000002</v>
       </c>
       <c r="U9">
-        <v>841.33100000000002</v>
+        <v>17.34</v>
       </c>
       <c r="V9">
-        <v>68.626999999999995</v>
+        <v>19.742000000000001</v>
       </c>
       <c r="W9">
-        <v>-1.5780000000000001</v>
+        <v>-1.4750000000000001</v>
       </c>
       <c r="X9">
-        <v>5.9829999999999997</v>
+        <v>-16.071999999999999</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>4.1390000000000002</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>46.674999999999997</v>
+        <v>14.613</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>70.183000000000007</v>
+        <v>13.582000000000001</v>
       </c>
       <c r="D10">
-        <v>588.53800000000001</v>
+        <v>129.46100000000001</v>
       </c>
       <c r="E10">
-        <v>184.22399999999999</v>
+        <v>42.412999999999997</v>
       </c>
       <c r="F10">
-        <v>378.27</v>
+        <v>65.066000000000003</v>
       </c>
       <c r="G10">
-        <v>1489.92</v>
+        <v>91.114000000000004</v>
       </c>
       <c r="H10">
-        <v>3428.721</v>
+        <v>437.75799999999998</v>
       </c>
       <c r="I10">
-        <v>244.499</v>
+        <v>71.426000000000002</v>
       </c>
       <c r="J10">
-        <v>777.98800000000006</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>212.399</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1430,81 +1550,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1037.47</v>
+        <v>76.933999999999997</v>
       </c>
       <c r="O10">
-        <v>2053.92</v>
+        <v>89.200999999999993</v>
       </c>
       <c r="P10">
-        <v>1092.8119999999999</v>
+        <v>5.984</v>
       </c>
       <c r="Q10">
-        <v>156.93</v>
+        <v>17.64</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1374.8009999999999</v>
+        <v>348.55700000000002</v>
       </c>
       <c r="U10">
-        <v>998.26099999999997</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="V10">
-        <v>56.165999999999997</v>
+        <v>34.283000000000001</v>
       </c>
       <c r="W10">
-        <v>-1.575</v>
+        <v>-1.4770000000000001</v>
       </c>
       <c r="X10">
-        <v>531.33299999999997</v>
+        <v>-11.332000000000001</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>70.183000000000007</v>
+        <v>13.582000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>58.462000000000003</v>
+        <v>12.098000000000001</v>
       </c>
       <c r="D11">
-        <v>578.74599999999998</v>
+        <v>124.57299999999999</v>
       </c>
       <c r="E11">
-        <v>167.16800000000001</v>
+        <v>43.18</v>
       </c>
       <c r="F11">
-        <v>361.28100000000001</v>
+        <v>61.890999999999998</v>
       </c>
       <c r="G11">
-        <v>1146.8620000000001</v>
+        <v>100.042</v>
       </c>
       <c r="H11">
-        <v>3076.2240000000002</v>
+        <v>441.49200000000002</v>
       </c>
       <c r="I11">
-        <v>227.36699999999999</v>
+        <v>56.063000000000002</v>
       </c>
       <c r="J11">
-        <v>883.46199999999999</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>167.15199999999999</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1513,81 +1633,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>673.82799999999997</v>
+        <v>67.432000000000002</v>
       </c>
       <c r="O11">
-        <v>1790.9860000000001</v>
+        <v>79.7</v>
       </c>
       <c r="P11">
-        <v>1122.9459999999999</v>
+        <v>5.319</v>
       </c>
       <c r="Q11">
-        <v>-315.30099999999999</v>
+        <v>-5.6120000000000001</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1285.2380000000001</v>
+        <v>361.79199999999997</v>
       </c>
       <c r="U11">
-        <v>682.96</v>
+        <v>29.367999999999999</v>
       </c>
       <c r="V11">
-        <v>79.974000000000004</v>
+        <v>-1.1639999999999999</v>
       </c>
       <c r="W11">
-        <v>-1.5349999999999999</v>
+        <v>-1.4810000000000001</v>
       </c>
       <c r="X11">
-        <v>-341.16800000000001</v>
+        <v>-2.8919999999999999</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>3.536</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>58.462000000000003</v>
+        <v>12.097</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>40.805</v>
+        <v>13.007</v>
       </c>
       <c r="D12">
-        <v>618.35199999999998</v>
+        <v>134.322</v>
       </c>
       <c r="E12">
-        <v>190.59100000000001</v>
+        <v>45.536999999999999</v>
       </c>
       <c r="F12">
-        <v>388.40100000000001</v>
+        <v>67.995000000000005</v>
       </c>
       <c r="G12">
-        <v>1214.492</v>
+        <v>162.10300000000001</v>
       </c>
       <c r="H12">
-        <v>3125.056</v>
+        <v>518.13400000000001</v>
       </c>
       <c r="I12">
-        <v>18.497</v>
+        <v>29.471</v>
       </c>
       <c r="J12">
-        <v>891.13400000000001</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>187.46100000000001</v>
+        <v>33.9</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1596,164 +1716,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>704.11400000000003</v>
+        <v>96.760999999999996</v>
       </c>
       <c r="O12">
-        <v>1838.4490000000001</v>
+        <v>128.46700000000001</v>
       </c>
       <c r="P12">
-        <v>1150.93</v>
+        <v>38.606999999999999</v>
       </c>
       <c r="Q12">
-        <v>-2.4900000000000002</v>
+        <v>8.6419999999999995</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="S12">
-        <v>3954</v>
+        <v>1700</v>
       </c>
       <c r="T12">
-        <v>1286.607</v>
+        <v>389.66699999999997</v>
       </c>
       <c r="U12">
-        <v>680.47</v>
+        <v>38.01</v>
       </c>
       <c r="V12">
-        <v>35.779000000000003</v>
+        <v>-23.684000000000001</v>
       </c>
       <c r="W12">
-        <v>-1.51</v>
+        <v>-1.4850000000000001</v>
       </c>
       <c r="X12">
-        <v>-12.625999999999999</v>
+        <v>32.631999999999998</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>3.2509999999999999</v>
       </c>
       <c r="Z12">
-        <v>1.2270000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>40.805</v>
+        <v>13.007</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>64.643000000000001</v>
+        <v>15.824999999999999</v>
       </c>
       <c r="D13">
-        <v>629.68499999999995</v>
+        <v>136.464</v>
       </c>
       <c r="E13">
-        <v>189.733</v>
+        <v>42.462000000000003</v>
       </c>
       <c r="F13">
-        <v>398.94</v>
+        <v>74.302000000000007</v>
       </c>
       <c r="G13">
-        <v>1590.068</v>
+        <v>152.386</v>
       </c>
       <c r="H13">
-        <v>3499.49</v>
+        <v>504.02300000000002</v>
       </c>
       <c r="I13">
-        <v>224.1</v>
+        <v>57.841999999999999</v>
       </c>
       <c r="J13">
-        <v>1000.383</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>328.48700000000002</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-331.51499999999999</v>
+        <v>-0.54200000000000004</v>
       </c>
       <c r="N13">
-        <v>1044.82</v>
+        <v>68.334999999999994</v>
       </c>
       <c r="O13">
-        <v>2294.8009999999999</v>
+        <v>99.801000000000002</v>
       </c>
       <c r="P13">
-        <v>1401.098</v>
+        <v>4.165</v>
       </c>
       <c r="Q13">
-        <v>45.417000000000002</v>
+        <v>58.11</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1204.6890000000001</v>
+        <v>404.22199999999998</v>
       </c>
       <c r="U13">
-        <v>725.88699999999994</v>
+        <v>96.12</v>
       </c>
       <c r="V13">
-        <v>-23.187000000000001</v>
+        <v>40.893000000000001</v>
       </c>
       <c r="W13">
-        <v>-1.456</v>
+        <v>-1.4870000000000001</v>
       </c>
       <c r="X13">
-        <v>92.48</v>
+        <v>21.466000000000001</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="Z13">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>64.643000000000001</v>
+        <v>15.824999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>73.897000000000006</v>
+        <v>14.872</v>
       </c>
       <c r="D14">
-        <v>634.12199999999996</v>
+        <v>148.447</v>
       </c>
       <c r="E14">
-        <v>196.45</v>
+        <v>46.036999999999999</v>
       </c>
       <c r="F14">
-        <v>398.952</v>
+        <v>81.173000000000002</v>
       </c>
       <c r="G14">
-        <v>2058.308</v>
+        <v>143.571</v>
       </c>
       <c r="H14">
-        <v>3981.5639999999999</v>
+        <v>711.43799999999999</v>
       </c>
       <c r="I14">
-        <v>235.36099999999999</v>
+        <v>72.135000000000005</v>
       </c>
       <c r="J14">
-        <v>922.54499999999996</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>446.50799999999998</v>
+        <v>114.229</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1762,81 +1882,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1573.0050000000001</v>
+        <v>226.42599999999999</v>
       </c>
       <c r="O14">
-        <v>2749.88</v>
+        <v>279.262</v>
       </c>
       <c r="P14">
-        <v>1441.404</v>
+        <v>118.032</v>
       </c>
       <c r="Q14">
-        <v>370.94600000000003</v>
+        <v>-16.367000000000001</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1231.684</v>
+        <v>432.17599999999999</v>
       </c>
       <c r="U14">
-        <v>1096.8330000000001</v>
+        <v>79.753</v>
       </c>
       <c r="V14">
-        <v>434.87</v>
+        <v>14.082000000000001</v>
       </c>
       <c r="W14">
-        <v>-1.4379999999999999</v>
+        <v>-1.506</v>
       </c>
       <c r="X14">
-        <v>-44.962000000000003</v>
+        <v>33.728000000000002</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="Z14">
-        <v>2.1120000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>73.897000000000006</v>
+        <v>14.872</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>55.121000000000002</v>
+        <v>16.503</v>
       </c>
       <c r="D15">
-        <v>616.452</v>
+        <v>162.56</v>
       </c>
       <c r="E15">
-        <v>175.73599999999999</v>
+        <v>48.563000000000002</v>
       </c>
       <c r="F15">
-        <v>383.51499999999999</v>
+        <v>90.787000000000006</v>
       </c>
       <c r="G15">
-        <v>1533.2550000000001</v>
+        <v>233.786</v>
       </c>
       <c r="H15">
-        <v>3455.7150000000001</v>
+        <v>851.875</v>
       </c>
       <c r="I15">
-        <v>243.21199999999999</v>
+        <v>72.457999999999998</v>
       </c>
       <c r="J15">
-        <v>1252.056</v>
+        <v>11.994</v>
       </c>
       <c r="K15">
-        <v>262.05500000000001</v>
+        <v>243.70099999999999</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1845,81 +1965,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>688.00199999999995</v>
+        <v>324.18200000000002</v>
       </c>
       <c r="O15">
-        <v>2192.0059999999999</v>
+        <v>391.661</v>
       </c>
       <c r="P15">
-        <v>1516.462</v>
+        <v>259.226</v>
       </c>
       <c r="Q15">
-        <v>-83.272999999999996</v>
+        <v>6.1369999999999996</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1263.7090000000001</v>
+        <v>460.214</v>
       </c>
       <c r="U15">
-        <v>1013.56</v>
+        <v>85.89</v>
       </c>
       <c r="V15">
-        <v>-97.281999999999996</v>
+        <v>13.832000000000001</v>
       </c>
       <c r="W15">
-        <v>-1.4359999999999999</v>
+        <v>-1.5129999999999999</v>
       </c>
       <c r="X15">
-        <v>43.45</v>
+        <v>32.402999999999999</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="Z15">
-        <v>0.41899999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>55.121000000000002</v>
+        <v>16.503</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>51.625</v>
+        <v>15.243</v>
       </c>
       <c r="D16">
-        <v>673.97699999999998</v>
+        <v>181.84899999999999</v>
       </c>
       <c r="E16">
-        <v>215.38300000000001</v>
+        <v>48.174999999999997</v>
       </c>
       <c r="F16">
-        <v>420.60399999999998</v>
+        <v>93.704999999999998</v>
       </c>
       <c r="G16">
-        <v>1643.444</v>
+        <v>233.083</v>
       </c>
       <c r="H16">
-        <v>4018.65</v>
+        <v>862.774</v>
       </c>
       <c r="I16">
-        <v>13.076000000000001</v>
+        <v>44.585000000000001</v>
       </c>
       <c r="J16">
-        <v>1376.002</v>
+        <v>7.4770000000000003</v>
       </c>
       <c r="K16">
-        <v>440.12799999999999</v>
+        <v>205.10900000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1928,164 +2048,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1211.6179999999999</v>
+        <v>319.36</v>
       </c>
       <c r="O16">
-        <v>2885.8510000000001</v>
+        <v>390.22199999999998</v>
       </c>
       <c r="P16">
-        <v>1833.807</v>
+        <v>219.24600000000001</v>
       </c>
       <c r="Q16">
-        <v>-431.68799999999999</v>
+        <v>-51.417999999999999</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="S16">
-        <v>4135</v>
+        <v>3500</v>
       </c>
       <c r="T16">
-        <v>1132.799</v>
+        <v>472.55200000000002</v>
       </c>
       <c r="U16">
-        <v>581.87199999999996</v>
+        <v>34.472000000000001</v>
       </c>
       <c r="V16">
-        <v>-120.303</v>
+        <v>23.363</v>
       </c>
       <c r="W16">
-        <v>-1.427</v>
+        <v>-1.524</v>
       </c>
       <c r="X16">
-        <v>127.928</v>
+        <v>-37.484000000000002</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>2.0609999999999999</v>
       </c>
       <c r="Z16">
-        <v>8.5999999999999993E-2</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>51.625</v>
+        <v>15.243</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>75.366</v>
+        <v>24.198</v>
       </c>
       <c r="D17">
-        <v>704.89499999999998</v>
+        <v>192.59100000000001</v>
       </c>
       <c r="E17">
-        <v>207.399</v>
+        <v>54.335000000000001</v>
       </c>
       <c r="F17">
-        <v>445.05599999999998</v>
+        <v>112.151</v>
       </c>
       <c r="G17">
-        <v>2006.7239999999999</v>
+        <v>209.19300000000001</v>
       </c>
       <c r="H17">
-        <v>4339.3559999999998</v>
+        <v>843.52099999999996</v>
       </c>
       <c r="I17">
-        <v>248.63900000000001</v>
+        <v>75.774000000000001</v>
       </c>
       <c r="J17">
-        <v>1388.75</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="K17">
-        <v>652.15700000000004</v>
+        <v>183.25899999999999</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-21.85</v>
       </c>
       <c r="M17">
-        <v>-363.67899999999997</v>
+        <v>-6.0810000000000004</v>
       </c>
       <c r="N17">
-        <v>1579.4970000000001</v>
+        <v>275.36099999999999</v>
       </c>
       <c r="O17">
-        <v>3268.8429999999998</v>
+        <v>341.53300000000002</v>
       </c>
       <c r="P17">
-        <v>2072.1570000000002</v>
+        <v>191.315</v>
       </c>
       <c r="Q17">
-        <v>14.012</v>
+        <v>-11.153</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1070.5129999999999</v>
+        <v>501.988</v>
       </c>
       <c r="U17">
-        <v>595.88400000000001</v>
+        <v>23.318999999999999</v>
       </c>
       <c r="V17">
-        <v>-63.472999999999999</v>
+        <v>30.404</v>
       </c>
       <c r="W17">
-        <v>-1.37</v>
+        <v>-1.5369999999999999</v>
       </c>
       <c r="X17">
-        <v>94.084999999999994</v>
+        <v>-26.672000000000001</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>75.366</v>
+        <v>24.198</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>74.781000000000006</v>
+        <v>23.577999999999999</v>
       </c>
       <c r="D18">
-        <v>697.29100000000005</v>
+        <v>188.54900000000001</v>
       </c>
       <c r="E18">
-        <v>197.63</v>
+        <v>54.213999999999999</v>
       </c>
       <c r="F18">
-        <v>439.495</v>
+        <v>109.199</v>
       </c>
       <c r="G18">
-        <v>2025.2550000000001</v>
+        <v>216.90799999999999</v>
       </c>
       <c r="H18">
-        <v>4541.5870000000004</v>
+        <v>865.95100000000002</v>
       </c>
       <c r="I18">
-        <v>299.108</v>
+        <v>74.662000000000006</v>
       </c>
       <c r="J18">
-        <v>1554.125</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>530.721</v>
+        <v>161.13999999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2094,81 +2214,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1676.133</v>
+        <v>249.44300000000001</v>
       </c>
       <c r="O18">
-        <v>3519.3510000000001</v>
+        <v>322.74599999999998</v>
       </c>
       <c r="P18">
-        <v>2135.6210000000001</v>
+        <v>166.38499999999999</v>
       </c>
       <c r="Q18">
-        <v>48.585000000000001</v>
+        <v>7.9480000000000004</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1022.236</v>
+        <v>543.20500000000004</v>
       </c>
       <c r="U18">
-        <v>644.46900000000005</v>
+        <v>31.266999999999999</v>
       </c>
       <c r="V18">
-        <v>290.40899999999999</v>
+        <v>34.682000000000002</v>
       </c>
       <c r="W18">
-        <v>-1.323</v>
+        <v>-1.548</v>
       </c>
       <c r="X18">
-        <v>10.92</v>
+        <v>-21.544</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>74.781000000000006</v>
+        <v>23.577999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>62.567999999999998</v>
+        <v>21.623000000000001</v>
       </c>
       <c r="D19">
-        <v>664.98299999999995</v>
+        <v>195.52600000000001</v>
       </c>
       <c r="E19">
-        <v>171.47900000000001</v>
+        <v>49.386000000000003</v>
       </c>
       <c r="F19">
-        <v>414.72800000000001</v>
+        <v>108.148</v>
       </c>
       <c r="G19">
-        <v>1593.15</v>
+        <v>165.631</v>
       </c>
       <c r="H19">
-        <v>4018.32</v>
+        <v>831.15300000000002</v>
       </c>
       <c r="I19">
-        <v>280.47199999999998</v>
+        <v>79.945999999999998</v>
       </c>
       <c r="J19">
-        <v>1546</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>446.8</v>
+        <v>95.942999999999998</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2177,81 +2297,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1242.7</v>
+        <v>179.23699999999999</v>
       </c>
       <c r="O19">
-        <v>3076.692</v>
+        <v>259.39</v>
       </c>
       <c r="P19">
-        <v>2059.3000000000002</v>
+        <v>100.378</v>
       </c>
       <c r="Q19">
-        <v>-34.320999999999998</v>
+        <v>26.934999999999999</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>941.62800000000004</v>
+        <v>571.76300000000003</v>
       </c>
       <c r="U19">
-        <v>610.14800000000002</v>
+        <v>58.201999999999998</v>
       </c>
       <c r="V19">
-        <v>120.149</v>
+        <v>122.941</v>
       </c>
       <c r="W19">
-        <v>-1.3420000000000001</v>
+        <v>-1.5569999999999999</v>
       </c>
       <c r="X19">
-        <v>-94.253</v>
+        <v>-64.861999999999995</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.087</v>
       </c>
       <c r="Z19">
-        <v>10.468999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>62.567999999999998</v>
+        <v>21.623000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>65.325000000000003</v>
+        <v>23.497</v>
       </c>
       <c r="D20">
-        <v>706.54899999999998</v>
+        <v>207.66499999999999</v>
       </c>
       <c r="E20">
-        <v>202.93799999999999</v>
+        <v>55.869</v>
       </c>
       <c r="F20">
-        <v>452.33199999999999</v>
+        <v>117.56100000000001</v>
       </c>
       <c r="G20">
-        <v>3289.915</v>
+        <v>189.99</v>
       </c>
       <c r="H20">
-        <v>5779.3010000000004</v>
+        <v>853.505</v>
       </c>
       <c r="I20">
-        <v>22.835999999999999</v>
+        <v>45.107999999999997</v>
       </c>
       <c r="J20">
-        <v>1678.2829999999999</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>592.62900000000002</v>
+        <v>58.606000000000002</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2260,164 +2380,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3015.1880000000001</v>
+        <v>182.803</v>
       </c>
       <c r="O20">
-        <v>4915.7479999999996</v>
+        <v>258.815</v>
       </c>
       <c r="P20">
-        <v>2332.6959999999999</v>
+        <v>62.393999999999998</v>
       </c>
       <c r="Q20">
-        <v>40.591000000000001</v>
+        <v>-9.2230000000000008</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="S20">
-        <v>4438</v>
+        <v>3900</v>
       </c>
       <c r="T20">
-        <v>863.553</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="U20">
-        <v>650.73900000000003</v>
+        <v>48.978999999999999</v>
       </c>
       <c r="V20">
-        <v>77.616</v>
+        <v>41.531999999999996</v>
       </c>
       <c r="W20">
-        <v>-1.3049999999999999</v>
+        <v>-1.5629999999999999</v>
       </c>
       <c r="X20">
-        <v>130.62299999999999</v>
+        <v>-39.274999999999999</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.746</v>
       </c>
       <c r="Z20">
-        <v>-10.597</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>65.325000000000003</v>
+        <v>23.497</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>86.646000000000001</v>
+        <v>30.738</v>
       </c>
       <c r="D21">
-        <v>748.79600000000005</v>
+        <v>224.45599999999999</v>
       </c>
       <c r="E21">
-        <v>215.126</v>
+        <v>68.100999999999999</v>
       </c>
       <c r="F21">
-        <v>476.13</v>
+        <v>133.47300000000001</v>
       </c>
       <c r="G21">
-        <v>2747.038</v>
+        <v>171.29300000000001</v>
       </c>
       <c r="H21">
-        <v>5472.9179999999997</v>
+        <v>841.64499999999998</v>
       </c>
       <c r="I21">
-        <v>297.50099999999998</v>
+        <v>75.823999999999998</v>
       </c>
       <c r="J21">
-        <v>1932.028</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>356.67500000000001</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="L21">
-        <v>-236.041</v>
+        <v>-57.673000000000002</v>
       </c>
       <c r="M21">
-        <v>-2626.9250000000002</v>
+        <v>-1.012</v>
       </c>
       <c r="N21">
-        <v>2390.2359999999999</v>
+        <v>126.785</v>
       </c>
       <c r="O21">
-        <v>4555.7749999999996</v>
+        <v>206.64500000000001</v>
       </c>
       <c r="P21">
-        <v>2294.6990000000001</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="Q21">
-        <v>152.57</v>
+        <v>-13.525</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>917.14300000000003</v>
+        <v>635</v>
       </c>
       <c r="U21">
-        <v>803.30899999999997</v>
+        <v>35.454000000000001</v>
       </c>
       <c r="V21">
-        <v>513.39200000000005</v>
+        <v>54.058999999999997</v>
       </c>
       <c r="W21">
-        <v>-1.3049999999999999</v>
+        <v>-1.5660000000000001</v>
       </c>
       <c r="X21">
-        <v>-90.114999999999995</v>
+        <v>-62.518999999999998</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>86.646000000000001</v>
+        <v>30.738</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>78.772000000000006</v>
+        <v>30.613</v>
       </c>
       <c r="D22">
-        <v>722.35</v>
+        <v>219.673</v>
       </c>
       <c r="E22">
-        <v>210.74299999999999</v>
+        <v>62.237000000000002</v>
       </c>
       <c r="F22">
-        <v>451.78500000000003</v>
+        <v>132.761</v>
       </c>
       <c r="G22">
-        <v>2655.8209999999999</v>
+        <v>226.97900000000001</v>
       </c>
       <c r="H22">
-        <v>5328.1009999999997</v>
+        <v>890.13599999999997</v>
       </c>
       <c r="I22">
-        <v>302.96499999999997</v>
+        <v>79.856999999999999</v>
       </c>
       <c r="J22">
-        <v>1915.8030000000001</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>685.178</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2426,75 +2546,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2267.645</v>
+        <v>130.88999999999999</v>
       </c>
       <c r="O22">
-        <v>4402.0020000000004</v>
+        <v>211.249</v>
       </c>
       <c r="P22">
-        <v>2607.1329999999998</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="Q22">
-        <v>185.148</v>
+        <v>96.242000000000004</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>926.09900000000005</v>
+        <v>678.88699999999994</v>
       </c>
       <c r="U22">
-        <v>988.45699999999999</v>
+        <v>131.696</v>
       </c>
       <c r="V22">
-        <v>-59.322000000000003</v>
+        <v>88.88</v>
       </c>
       <c r="W22">
-        <v>-1.2969999999999999</v>
+        <v>-1.583</v>
       </c>
       <c r="X22">
-        <v>275.846</v>
+        <v>8.0730000000000004</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>78.771000000000001</v>
+        <v>30.613</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38776</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>59.911000000000001</v>
+        <v>30.111000000000001</v>
       </c>
       <c r="D23">
-        <v>626.25900000000001</v>
+        <v>225.15899999999999</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>60.95</v>
       </c>
       <c r="F23">
-        <v>378.072</v>
+        <v>138.49600000000001</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>318.11500000000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>981.98599999999999</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>85.311999999999998</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2503,43 +2623,43 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-135.071</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-157</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>166.01400000000001</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>251.57300000000001</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.127</v>
       </c>
       <c r="Q23">
-        <v>40.168999999999997</v>
+        <v>81.447000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38776</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>730.41300000000001</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>213.143</v>
       </c>
       <c r="V23">
-        <v>208.21299999999999</v>
+        <v>85.12</v>
       </c>
       <c r="W23">
-        <v>-1.2929999999999999</v>
+        <v>-1.591</v>
       </c>
       <c r="X23">
-        <v>-161.452</v>
+        <v>1.014</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2548,36 +2668,36 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>59.911000000000001</v>
+        <v>30.111000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38868</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>62.232999999999997</v>
+        <v>34.061999999999998</v>
       </c>
       <c r="D24">
-        <v>842.64400000000001</v>
+        <v>238.768</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>68.379000000000005</v>
       </c>
       <c r="F24">
-        <v>435.77100000000002</v>
+        <v>149.70500000000001</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>348.40600000000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1018.678</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>46.73</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2592,164 +2712,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>149.655</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>235.459</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.746</v>
       </c>
       <c r="Q24">
-        <v>360.45</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38868</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>4277</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>783.21900000000005</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>218.47499999999999</v>
       </c>
       <c r="V24">
-        <v>41.084000000000003</v>
+        <v>6.7140000000000004</v>
       </c>
       <c r="W24">
-        <v>-1.544</v>
+        <v>-1.5960000000000001</v>
       </c>
       <c r="X24">
-        <v>2170.5189999999998</v>
+        <v>-0.84199999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>37.716999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>62.232999999999997</v>
+        <v>34.061999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38960</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>55.51</v>
+        <v>41.509</v>
       </c>
       <c r="D25">
-        <v>951.88499999999999</v>
+        <v>260.30799999999999</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>77.748999999999995</v>
       </c>
       <c r="F25">
-        <v>481.90499999999997</v>
+        <v>162.11799999999999</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>312.83</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1051.02</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>89.646000000000001</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-0.34899999999999998</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>132.32900000000001</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>214.81</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="Q25">
-        <v>22.475000000000001</v>
+        <v>-49.896999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38960</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>836.21</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>168.578</v>
       </c>
       <c r="V25">
-        <v>118.13500000000001</v>
+        <v>22.36</v>
       </c>
       <c r="W25">
-        <v>-1.5389999999999999</v>
+        <v>-1.601</v>
       </c>
       <c r="X25">
-        <v>-54.22</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>6.6000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>55.51</v>
+        <v>41.509</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39051</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>36.513460000000002</v>
+        <v>34.002000000000002</v>
       </c>
       <c r="D26">
-        <v>1355.6047699999999</v>
+        <v>260.697</v>
       </c>
       <c r="E26">
-        <v>283.23200000000003</v>
+        <v>75.323999999999998</v>
       </c>
       <c r="F26">
-        <v>604.20032000000003</v>
+        <v>154.93100000000001</v>
       </c>
       <c r="G26">
-        <v>3116.0059999999999</v>
+        <v>376.91300000000001</v>
       </c>
       <c r="H26">
-        <v>10664.35</v>
+        <v>1120.848</v>
       </c>
       <c r="I26">
-        <v>28.178000000000001</v>
+        <v>109.71899999999999</v>
       </c>
       <c r="J26">
-        <v>4260.8270000000002</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>392.072</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2758,120 +2878,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2851.9560000000001</v>
+        <v>160.03200000000001</v>
       </c>
       <c r="O26">
-        <v>7885.0079999999998</v>
+        <v>238.768</v>
       </c>
       <c r="P26">
-        <v>4830.6840000000002</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="Q26">
-        <v>-220.72082</v>
+        <v>80.668999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39051</v>
       </c>
       <c r="S26">
-        <v>8760</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2779.3420000000001</v>
+        <v>882.08</v>
       </c>
       <c r="U26">
-        <v>1162.779</v>
+        <v>249.24700000000001</v>
       </c>
       <c r="V26">
-        <v>516.84128999999996</v>
+        <v>91.858999999999995</v>
       </c>
       <c r="W26">
-        <v>-0.88514000000000004</v>
+        <v>-1.611</v>
       </c>
       <c r="X26">
-        <v>-2432.71108</v>
+        <v>6.0140000000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>26.87473</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>36.513460000000002</v>
+        <v>34.002000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39141</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>48.813000000000002</v>
+        <v>34.295999999999999</v>
       </c>
       <c r="D27">
-        <v>919.76199999999994</v>
+        <v>260.41800000000001</v>
       </c>
       <c r="E27">
-        <v>272.00299999999999</v>
+        <v>71.798000000000002</v>
       </c>
       <c r="F27">
-        <v>463.82600000000002</v>
+        <v>156.863</v>
       </c>
       <c r="G27">
-        <v>2399.1799999999998</v>
+        <v>415.40100000000001</v>
       </c>
       <c r="H27">
-        <v>9959.7160000000003</v>
+        <v>1158.951</v>
       </c>
       <c r="I27">
-        <v>822.41300000000001</v>
+        <v>107.04</v>
       </c>
       <c r="J27">
-        <v>4221.2579999999998</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>276.40300000000002</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-117.789</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-189.732</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2092.8620000000001</v>
+        <v>165.00800000000001</v>
       </c>
       <c r="O27">
-        <v>7083.4250000000002</v>
+        <v>240.34899999999999</v>
       </c>
       <c r="P27">
-        <v>4678.5709999999999</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>99.066000000000003</v>
+        <v>42.811999999999998</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39141</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2876.2910000000002</v>
+        <v>918.60199999999998</v>
       </c>
       <c r="U27">
-        <v>1261.845</v>
+        <v>292.05900000000003</v>
       </c>
       <c r="V27">
-        <v>293.96499999999997</v>
+        <v>49.709000000000003</v>
       </c>
       <c r="W27">
-        <v>-1.522</v>
+        <v>-1.613</v>
       </c>
       <c r="X27">
-        <v>-159.965</v>
+        <v>0.997</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2880,42 +3000,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>48.813000000000002</v>
+        <v>34.295999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39233</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>66.91</v>
+        <v>33.177999999999997</v>
       </c>
       <c r="D28">
-        <v>962.24</v>
+        <v>280.10000000000002</v>
       </c>
       <c r="E28">
-        <v>288.15300000000002</v>
+        <v>78.355000000000004</v>
       </c>
       <c r="F28">
-        <v>493.09100000000001</v>
+        <v>172.774</v>
       </c>
       <c r="G28">
-        <v>2516.0709999999999</v>
+        <v>444.42899999999997</v>
       </c>
       <c r="H28">
-        <v>10036.781000000001</v>
+        <v>1200.6289999999999</v>
       </c>
       <c r="I28">
-        <v>820.75699999999995</v>
+        <v>44.652000000000001</v>
       </c>
       <c r="J28">
-        <v>4175.4110000000001</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>318.28399999999999</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2924,37 +3044,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2098.4639999999999</v>
+        <v>142.87700000000001</v>
       </c>
       <c r="O28">
-        <v>7032.143</v>
+        <v>227.92</v>
       </c>
       <c r="P28">
-        <v>4582.6840000000002</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-181.26900000000001</v>
+        <v>16.812999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39233</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="T28">
-        <v>3004.6379999999999</v>
+        <v>972.70899999999995</v>
       </c>
       <c r="U28">
-        <v>1080.576</v>
+        <v>308.87200000000001</v>
       </c>
       <c r="V28">
-        <v>-25.904</v>
+        <v>27.204000000000001</v>
       </c>
       <c r="W28">
-        <v>-2.0289999999999999</v>
+        <v>-1.617</v>
       </c>
       <c r="X28">
-        <v>-130.98400000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2963,42 +3083,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>66.909000000000006</v>
+        <v>33.177999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39325</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>110.74</v>
+        <v>43.575000000000003</v>
       </c>
       <c r="D29">
-        <v>1038.9069999999999</v>
+        <v>310.98</v>
       </c>
       <c r="E29">
-        <v>296.36599999999999</v>
+        <v>91.677000000000007</v>
       </c>
       <c r="F29">
-        <v>545.024</v>
+        <v>194.67099999999999</v>
       </c>
       <c r="G29">
-        <v>3550.297</v>
+        <v>424.09699999999998</v>
       </c>
       <c r="H29">
-        <v>12281.549000000001</v>
+        <v>1185.3779999999999</v>
       </c>
       <c r="I29">
-        <v>990.86800000000005</v>
+        <v>115.756</v>
       </c>
       <c r="J29">
-        <v>4677.91</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>487.51299999999998</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3007,37 +3127,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3123.9110000000001</v>
+        <v>142.07</v>
       </c>
       <c r="O29">
-        <v>8586.5959999999995</v>
+        <v>227.149</v>
       </c>
       <c r="P29">
-        <v>5260.326</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="Q29">
-        <v>105.474</v>
+        <v>-38.328000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39325</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3694.953</v>
+        <v>958.22900000000004</v>
       </c>
       <c r="U29">
-        <v>1186.05</v>
+        <v>270.54399999999998</v>
       </c>
       <c r="V29">
-        <v>92.061999999999998</v>
+        <v>38.139000000000003</v>
       </c>
       <c r="W29">
-        <v>-1.59</v>
+        <v>-1.6220000000000001</v>
       </c>
       <c r="X29">
-        <v>624.07299999999998</v>
+        <v>-66.581999999999994</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3046,42 +3166,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>110.74</v>
+        <v>43.575000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39416</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>241.96199999999999</v>
+        <v>38.313000000000002</v>
       </c>
       <c r="D30">
-        <v>1054.2529999999999</v>
+        <v>308.77600000000001</v>
       </c>
       <c r="E30">
-        <v>301.887</v>
+        <v>87.825000000000003</v>
       </c>
       <c r="F30">
-        <v>545.18499999999995</v>
+        <v>192.26300000000001</v>
       </c>
       <c r="G30">
-        <v>4303.5789999999997</v>
+        <v>510.017</v>
       </c>
       <c r="H30">
-        <v>12998.069</v>
+        <v>1302.749</v>
       </c>
       <c r="I30">
-        <v>47.390999999999998</v>
+        <v>117.425</v>
       </c>
       <c r="J30">
-        <v>4559.4080000000004</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>635.16600000000005</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3090,37 +3210,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3815.59</v>
+        <v>189.124</v>
       </c>
       <c r="O30">
-        <v>9032.8379999999997</v>
+        <v>283.31</v>
       </c>
       <c r="P30">
-        <v>5294.8819999999996</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="Q30">
-        <v>149.80500000000001</v>
+        <v>92.852999999999994</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39416</v>
       </c>
       <c r="S30">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>3965.2310000000002</v>
+        <v>1019.439</v>
       </c>
       <c r="U30">
-        <v>1335.855</v>
+        <v>363.39699999999999</v>
       </c>
       <c r="V30">
-        <v>152.26499999999999</v>
+        <v>111.238</v>
       </c>
       <c r="W30">
-        <v>-1.591</v>
+        <v>-1.571</v>
       </c>
       <c r="X30">
-        <v>19.181000000000001</v>
+        <v>-7.5380000000000003</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3129,81 +3249,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>241.96199999999999</v>
+        <v>38.313000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39507</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>91.399000000000001</v>
+        <v>40.055</v>
       </c>
       <c r="D31">
-        <v>794.97699999999998</v>
+        <v>310.64100000000002</v>
       </c>
       <c r="E31">
-        <v>288.101</v>
+        <v>85.504999999999995</v>
       </c>
       <c r="F31">
-        <v>542.59100000000001</v>
+        <v>192.98</v>
       </c>
       <c r="G31">
-        <v>4157.8779999999997</v>
+        <v>528.77200000000005</v>
       </c>
       <c r="H31">
-        <v>12903.297</v>
+        <v>1325.769</v>
       </c>
       <c r="I31">
-        <v>939.97900000000004</v>
+        <v>117.41800000000001</v>
       </c>
       <c r="J31">
-        <v>4176.8509999999997</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>447.61700000000002</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="L31">
-        <v>-192.517</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-687.82</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3908.9189999999999</v>
+        <v>169.05799999999999</v>
       </c>
       <c r="O31">
-        <v>8763.5069999999996</v>
+        <v>251.489</v>
       </c>
       <c r="P31">
-        <v>4731.9470000000001</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="Q31">
-        <v>-330.03199999999998</v>
+        <v>25.07</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39507</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4139.79</v>
+        <v>1074.28</v>
       </c>
       <c r="U31">
-        <v>1005.823</v>
+        <v>388.46699999999998</v>
       </c>
       <c r="V31">
-        <v>284.541</v>
+        <v>34.533000000000001</v>
       </c>
       <c r="W31">
-        <v>-1.593</v>
+        <v>-1.591</v>
       </c>
       <c r="X31">
-        <v>-571.96100000000001</v>
+        <v>-1.03</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3212,42 +3332,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>91.399000000000001</v>
+        <v>40.055</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39599</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>109.069</v>
+        <v>40.811</v>
       </c>
       <c r="D32">
-        <v>833.16399999999999</v>
+        <v>343.83199999999999</v>
       </c>
       <c r="E32">
-        <v>317.22199999999998</v>
+        <v>101.533</v>
       </c>
       <c r="F32">
-        <v>568.62</v>
+        <v>218.703</v>
       </c>
       <c r="G32">
-        <v>3658.944</v>
+        <v>617.41</v>
       </c>
       <c r="H32">
-        <v>12299.877</v>
+        <v>1445.9069999999999</v>
       </c>
       <c r="I32">
-        <v>911.03399999999999</v>
+        <v>36.347000000000001</v>
       </c>
       <c r="J32">
-        <v>4255.1419999999998</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>547.34100000000001</v>
+        <v>1.5269999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3256,37 +3376,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3364.3670000000002</v>
+        <v>217.75200000000001</v>
       </c>
       <c r="O32">
-        <v>8283.8760000000002</v>
+        <v>304.36500000000001</v>
       </c>
       <c r="P32">
-        <v>4877.2</v>
+        <v>1.5269999999999999</v>
       </c>
       <c r="Q32">
-        <v>93.706000000000003</v>
+        <v>67.593000000000004</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39599</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>4899</v>
       </c>
       <c r="T32">
-        <v>4016.0010000000002</v>
+        <v>1141.5419999999999</v>
       </c>
       <c r="U32">
-        <v>1099.529</v>
+        <v>456.06</v>
       </c>
       <c r="V32">
-        <v>222.215</v>
+        <v>88.504000000000005</v>
       </c>
       <c r="W32">
-        <v>-1.5780000000000001</v>
+        <v>-1.593</v>
       </c>
       <c r="X32">
-        <v>-41.81</v>
+        <v>-1.2230000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3295,42 +3415,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>109.069</v>
+        <v>40.811</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39691</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>176.37</v>
+        <v>57.527000000000001</v>
       </c>
       <c r="D33">
-        <v>857.67</v>
+        <v>368.96</v>
       </c>
       <c r="E33">
-        <v>321.66399999999999</v>
+        <v>140.73599999999999</v>
       </c>
       <c r="F33">
-        <v>592.65700000000004</v>
+        <v>249.47399999999999</v>
       </c>
       <c r="G33">
-        <v>4413.99</v>
+        <v>484.72</v>
       </c>
       <c r="H33">
-        <v>13839.236000000001</v>
+        <v>1699.758</v>
       </c>
       <c r="I33">
-        <v>951.33500000000004</v>
+        <v>142.167</v>
       </c>
       <c r="J33">
-        <v>4707.51</v>
+        <v>175</v>
       </c>
       <c r="K33">
-        <v>685.87800000000004</v>
+        <v>10.632999999999999</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3339,81 +3459,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4267.0709999999999</v>
+        <v>270.36200000000002</v>
       </c>
       <c r="O33">
-        <v>9663.6679999999997</v>
+        <v>530.89400000000001</v>
       </c>
       <c r="P33">
-        <v>5486.0770000000002</v>
+        <v>210.63300000000001</v>
       </c>
       <c r="Q33">
-        <v>-108.925</v>
+        <v>-168.339</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39691</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4175.5680000000002</v>
+        <v>1168.864</v>
       </c>
       <c r="U33">
-        <v>990.60400000000004</v>
+        <v>287.721</v>
       </c>
       <c r="V33">
-        <v>154.25</v>
+        <v>67.774000000000001</v>
       </c>
       <c r="W33">
-        <v>-1.579</v>
+        <v>-1.5960000000000001</v>
       </c>
       <c r="X33">
-        <v>564.73099999999999</v>
+        <v>217.78399999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>5.7370000000000001</v>
       </c>
       <c r="AA33">
-        <v>176.37</v>
+        <v>57.527000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39782</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>75.215000000000003</v>
+        <v>48.906999999999996</v>
       </c>
       <c r="D34">
-        <v>880.55499999999995</v>
+        <v>365.88400000000001</v>
       </c>
       <c r="E34">
-        <v>348.4</v>
+        <v>111.276</v>
       </c>
       <c r="F34">
-        <v>567.48400000000004</v>
+        <v>234.74</v>
       </c>
       <c r="G34">
-        <v>3376.2080000000001</v>
+        <v>506.98599999999999</v>
       </c>
       <c r="H34">
-        <v>13230.773999999999</v>
+        <v>1613.43</v>
       </c>
       <c r="I34">
-        <v>76.228999999999999</v>
+        <v>138.40100000000001</v>
       </c>
       <c r="J34">
-        <v>5029.7690000000002</v>
+        <v>170</v>
       </c>
       <c r="K34">
-        <v>700.48599999999999</v>
+        <v>6.5739999999999998</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3422,164 +3542,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3268.62</v>
+        <v>272.59199999999998</v>
       </c>
       <c r="O34">
-        <v>9044.4310000000005</v>
+        <v>511.67899999999997</v>
       </c>
       <c r="P34">
-        <v>5845.33</v>
+        <v>201.57400000000001</v>
       </c>
       <c r="Q34">
-        <v>220.274</v>
+        <v>68.513000000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39782</v>
       </c>
       <c r="S34">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>4186.3429999999998</v>
+        <v>1101.751</v>
       </c>
       <c r="U34">
-        <v>1210.8779999999999</v>
+        <v>356.23399999999998</v>
       </c>
       <c r="V34">
-        <v>445.07600000000002</v>
+        <v>132.72300000000001</v>
       </c>
       <c r="W34">
-        <v>-1.5820000000000001</v>
+        <v>-1.6140000000000001</v>
       </c>
       <c r="X34">
-        <v>335.97</v>
+        <v>-24.138000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="AA34">
-        <v>75.215000000000003</v>
+        <v>48.906999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39872</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>112.34099999999999</v>
+        <v>-106.776</v>
       </c>
       <c r="D35">
-        <v>883.03899999999999</v>
+        <v>359.52800000000002</v>
       </c>
       <c r="E35">
-        <v>381.608</v>
+        <v>105.79600000000001</v>
       </c>
       <c r="F35">
-        <v>577.80899999999997</v>
+        <v>235.52699999999999</v>
       </c>
       <c r="G35">
-        <v>4669.7510000000002</v>
+        <v>530.41200000000003</v>
       </c>
       <c r="H35">
-        <v>14749.620999999999</v>
+        <v>1444.596</v>
       </c>
       <c r="I35">
-        <v>957.88599999999997</v>
+        <v>143.011</v>
       </c>
       <c r="J35">
-        <v>5170.3770000000004</v>
+        <v>165</v>
       </c>
       <c r="K35">
-        <v>641.90599999999995</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="L35">
-        <v>-55.35</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-173.06</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4516.2219999999998</v>
+        <v>264.70699999999999</v>
       </c>
       <c r="O35">
-        <v>10607.16</v>
+        <v>496.1</v>
       </c>
       <c r="P35">
-        <v>6238.2889999999998</v>
+        <v>194.11</v>
       </c>
       <c r="Q35">
-        <v>66.754999999999995</v>
+        <v>31.359000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39872</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4142.4610000000002</v>
+        <v>948.49599999999998</v>
       </c>
       <c r="U35">
-        <v>1277.633</v>
+        <v>387.59300000000002</v>
       </c>
       <c r="V35">
-        <v>229.72900000000001</v>
+        <v>68.28</v>
       </c>
       <c r="W35">
-        <v>-1.571</v>
+        <v>-1.5980000000000001</v>
       </c>
       <c r="X35">
-        <v>-49.209000000000003</v>
+        <v>-18.388999999999999</v>
       </c>
       <c r="Y35">
-        <v>230.26</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="AA35">
-        <v>112.34099999999999</v>
+        <v>-106.776</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39964</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>120.459</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>935.15200000000004</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>394.60300000000001</v>
+        <v>123.438</v>
       </c>
       <c r="F36">
-        <v>632.87599999999998</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>4547.6790000000001</v>
+        <v>595.18799999999999</v>
       </c>
       <c r="H36">
-        <v>14584.072</v>
+        <v>1676.8209999999999</v>
       </c>
       <c r="I36">
-        <v>911.80200000000002</v>
+        <v>36.857999999999997</v>
       </c>
       <c r="J36">
-        <v>5050.4709999999995</v>
+        <v>167.61</v>
       </c>
       <c r="K36">
-        <v>736.20899999999995</v>
+        <v>10.173999999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3588,164 +3708,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4483.5820000000003</v>
+        <v>336.17700000000002</v>
       </c>
       <c r="O36">
-        <v>10408.956</v>
+        <v>599.20100000000002</v>
       </c>
       <c r="P36">
-        <v>6211.6989999999996</v>
+        <v>207.17699999999999</v>
       </c>
       <c r="Q36">
-        <v>-229.90600000000001</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39964</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>5844</v>
       </c>
       <c r="T36">
-        <v>4175.116</v>
+        <v>1077.6199999999999</v>
       </c>
       <c r="U36">
-        <v>1047.7270000000001</v>
+        <v>426.935</v>
       </c>
       <c r="V36">
-        <v>17.623999999999999</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>-1.5660000000000001</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-163.334</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>224.751</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>120.458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40056</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>95.042000000000002</v>
+        <v>57.831000000000003</v>
       </c>
       <c r="D37">
-        <v>1105.941</v>
+        <v>409.93200000000002</v>
       </c>
       <c r="E37">
-        <v>868.13300000000004</v>
+        <v>126.557</v>
       </c>
       <c r="F37">
-        <v>678.221</v>
+        <v>268.72800000000001</v>
       </c>
       <c r="G37">
-        <v>4992.5680000000002</v>
+        <v>1252.556</v>
       </c>
       <c r="H37">
-        <v>45212.046999999999</v>
+        <v>2430.9279999999999</v>
       </c>
       <c r="I37">
-        <v>1565.672</v>
+        <v>165.69</v>
       </c>
       <c r="J37">
-        <v>9015.09</v>
+        <v>374.36599999999999</v>
       </c>
       <c r="K37">
-        <v>547.62400000000002</v>
+        <v>12.122</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-27.486999999999998</v>
       </c>
       <c r="N37">
-        <v>4283.152</v>
+        <v>1029.7729999999999</v>
       </c>
       <c r="O37">
-        <v>17256.329000000002</v>
+        <v>1503.6279999999999</v>
       </c>
       <c r="P37">
-        <v>10125.33</v>
+        <v>482.38099999999997</v>
       </c>
       <c r="Q37">
-        <v>1079.8889999999999</v>
+        <v>645.41399999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40056</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>27955.718000000001</v>
+        <v>927.3</v>
       </c>
       <c r="U37">
-        <v>2127.616</v>
+        <v>1072.3489999999999</v>
       </c>
       <c r="V37">
-        <v>1102.0360000000001</v>
+        <v>696.50800000000004</v>
       </c>
       <c r="W37">
-        <v>-1.59</v>
+        <v>-1.6160000000000001</v>
       </c>
       <c r="X37">
-        <v>322.41899999999998</v>
+        <v>-41.694000000000003</v>
       </c>
       <c r="Y37">
-        <v>440.96300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.253</v>
       </c>
       <c r="AA37">
-        <v>95.043999999999997</v>
+        <v>57.831000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40147</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>102.771</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1987.761</v>
+        <v>408.95100000000002</v>
       </c>
       <c r="E38">
-        <v>895.23199999999997</v>
+        <v>132.523</v>
       </c>
       <c r="F38">
-        <v>1005.883</v>
+        <v>264.07</v>
       </c>
       <c r="G38">
-        <v>4366.4480000000003</v>
+        <v>1391.0940000000001</v>
       </c>
       <c r="H38">
-        <v>44480.161999999997</v>
+        <v>2509.848</v>
       </c>
       <c r="I38">
-        <v>148.084</v>
+        <v>169.417</v>
       </c>
       <c r="J38">
-        <v>9109.5419999999995</v>
+        <v>341.97800000000001</v>
       </c>
       <c r="K38">
-        <v>463.23700000000002</v>
+        <v>9.8230000000000004</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3754,164 +3874,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3579.346</v>
+        <v>1052.009</v>
       </c>
       <c r="O38">
-        <v>16425.172999999999</v>
+        <v>1481.2239999999999</v>
       </c>
       <c r="P38">
-        <v>10120.642</v>
+        <v>460.93900000000002</v>
       </c>
       <c r="Q38">
-        <v>-449.34300000000002</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40147</v>
       </c>
       <c r="S38">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>28054.989000000001</v>
+        <v>1028.624</v>
       </c>
       <c r="U38">
-        <v>1678.2729999999999</v>
+        <v>1090.847</v>
       </c>
       <c r="V38">
-        <v>41.889000000000003</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>-58.771000000000001</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-138.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>423.91399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>102.771</v>
+        <v>62.835000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40237</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>143.57499999999999</v>
+        <v>48.460999999999999</v>
       </c>
       <c r="D39">
-        <v>1903.598</v>
+        <v>398.53500000000003</v>
       </c>
       <c r="E39">
-        <v>799.798</v>
+        <v>122.648</v>
       </c>
       <c r="F39">
-        <v>969.72699999999998</v>
+        <v>252.333</v>
       </c>
       <c r="G39">
-        <v>4069.67</v>
+        <v>901.25300000000004</v>
       </c>
       <c r="H39">
-        <v>43849.597999999998</v>
+        <v>1979.6679999999999</v>
       </c>
       <c r="I39">
-        <v>1396.0740000000001</v>
+        <v>176.423</v>
       </c>
       <c r="J39">
-        <v>9689.6389999999992</v>
+        <v>307.298</v>
       </c>
       <c r="K39">
-        <v>375.18200000000002</v>
+        <v>10.513</v>
       </c>
       <c r="L39">
-        <v>-78.091999999999999</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-110.97799999999999</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>3036.279</v>
+        <v>542.678</v>
       </c>
       <c r="O39">
-        <v>16329.165000000001</v>
+        <v>935.43499999999995</v>
       </c>
       <c r="P39">
-        <v>10171.535</v>
+        <v>457.78699999999998</v>
       </c>
       <c r="Q39">
-        <v>121.788</v>
+        <v>-538.57799999999997</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40237</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>27520.433000000001</v>
+        <v>1044.2329999999999</v>
       </c>
       <c r="U39">
-        <v>1800.0609999999999</v>
+        <v>589.62</v>
       </c>
       <c r="V39">
-        <v>436.57400000000001</v>
+        <v>-519.18100000000004</v>
       </c>
       <c r="W39">
-        <v>-58.279000000000003</v>
+        <v>-1.6319999999999999</v>
       </c>
       <c r="X39">
-        <v>-77.480999999999995</v>
+        <v>1.107</v>
       </c>
       <c r="Y39">
-        <v>30.797999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AA39">
-        <v>143.57499999999999</v>
+        <v>48.460999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40329</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>37.328000000000003</v>
+        <v>34.19</v>
       </c>
       <c r="D40">
-        <v>1671.952</v>
+        <v>425.05</v>
       </c>
       <c r="E40">
-        <v>788.697</v>
+        <v>132.48099999999999</v>
       </c>
       <c r="F40">
-        <v>778.21199999999999</v>
+        <v>272.72800000000001</v>
       </c>
       <c r="G40">
-        <v>4351.3410000000003</v>
+        <v>968.26400000000001</v>
       </c>
       <c r="H40">
-        <v>44001.476999999999</v>
+        <v>2039.326</v>
       </c>
       <c r="I40">
-        <v>1369.3409999999999</v>
+        <v>15.426</v>
       </c>
       <c r="J40">
-        <v>8475.6059999999998</v>
+        <v>272.96499999999997</v>
       </c>
       <c r="K40">
-        <v>439.47399999999999</v>
+        <v>79.186999999999998</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3920,211 +4040,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4229.3429999999998</v>
+        <v>672.471</v>
       </c>
       <c r="O40">
-        <v>16368.487999999999</v>
+        <v>1065.1369999999999</v>
       </c>
       <c r="P40">
-        <v>9799.7980000000007</v>
+        <v>500.32100000000003</v>
       </c>
       <c r="Q40">
-        <v>25.564</v>
+        <v>180.32599999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40329</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>3592</v>
       </c>
       <c r="T40">
-        <v>27632.989000000001</v>
+        <v>974.18899999999996</v>
       </c>
       <c r="U40">
-        <v>1825.625</v>
+        <v>769.94600000000003</v>
       </c>
       <c r="V40">
-        <v>523.71500000000003</v>
+        <v>199.72</v>
       </c>
       <c r="W40">
-        <v>-58.311999999999998</v>
+        <v>-1.62</v>
       </c>
       <c r="X40">
-        <v>-432.60899999999998</v>
+        <v>-44.36</v>
       </c>
       <c r="Y40">
-        <v>47.14</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AA40">
-        <v>37.331000000000003</v>
+        <v>34.19</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40421</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>220.97300000000001</v>
+        <v>49.368000000000002</v>
       </c>
       <c r="D41">
-        <v>1917.8150000000001</v>
+        <v>440.13799999999998</v>
       </c>
       <c r="E41">
-        <v>822.03300000000002</v>
+        <v>151.69800000000001</v>
       </c>
       <c r="F41">
-        <v>1016.894</v>
+        <v>289.09699999999998</v>
       </c>
       <c r="G41">
-        <v>4968.6499999999996</v>
+        <v>805.26900000000001</v>
       </c>
       <c r="H41">
-        <v>44549.781999999999</v>
+        <v>1908.7449999999999</v>
       </c>
       <c r="I41">
-        <v>1460.787</v>
+        <v>180.059</v>
       </c>
       <c r="J41">
-        <v>8445.9220000000005</v>
+        <v>238.24799999999999</v>
       </c>
       <c r="K41">
-        <v>439.37099999999998</v>
+        <v>84.135000000000005</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-49.466999999999999</v>
       </c>
       <c r="N41">
-        <v>4415.2539999999999</v>
+        <v>508.01100000000002</v>
       </c>
       <c r="O41">
-        <v>16585.939999999999</v>
+        <v>871.43399999999997</v>
       </c>
       <c r="P41">
-        <v>9784.5969999999998</v>
+        <v>460.28100000000001</v>
       </c>
       <c r="Q41">
-        <v>395.197</v>
+        <v>-191.733</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40421</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>27963.842000000001</v>
+        <v>1037.3109999999999</v>
       </c>
       <c r="U41">
-        <v>2220.8220000000001</v>
+        <v>578.21299999999997</v>
       </c>
       <c r="V41">
-        <v>584.471</v>
+        <v>-104.377</v>
       </c>
       <c r="W41">
-        <v>-58.433999999999997</v>
+        <v>-1.5860000000000001</v>
       </c>
       <c r="X41">
-        <v>-84.545000000000002</v>
+        <v>-61.774999999999999</v>
       </c>
       <c r="Y41">
-        <v>65.141999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>220.971</v>
+        <v>49.368000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40512</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>53.505000000000003</v>
+      </c>
+      <c r="D42">
+        <v>443.52600000000001</v>
+      </c>
+      <c r="E42">
+        <v>150.27500000000001</v>
+      </c>
+      <c r="F42">
+        <v>289.32100000000003</v>
+      </c>
+      <c r="G42">
+        <v>928.65800000000002</v>
+      </c>
+      <c r="H42">
+        <v>2056.59</v>
+      </c>
+      <c r="I42">
+        <v>177.87899999999999</v>
+      </c>
+      <c r="J42">
+        <v>202.61</v>
+      </c>
+      <c r="K42">
+        <v>180.881</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>605.98500000000001</v>
+      </c>
+      <c r="O42">
+        <v>942.846</v>
+      </c>
+      <c r="P42">
+        <v>526.58500000000004</v>
+      </c>
+      <c r="Q42">
+        <v>85.447000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40512</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1113.7439999999999</v>
+      </c>
+      <c r="U42">
+        <v>663.66</v>
+      </c>
+      <c r="V42">
+        <v>43.460999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-1.5940000000000001</v>
+      </c>
+      <c r="X42">
+        <v>64.162999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>53.505000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>456.38200000000001</v>
+      </c>
+      <c r="E43">
+        <v>138.51400000000001</v>
+      </c>
+      <c r="F43">
+        <v>288.05</v>
+      </c>
+      <c r="G43">
+        <v>1569.712</v>
+      </c>
+      <c r="H43">
+        <v>3052.4180000000001</v>
+      </c>
+      <c r="I43">
+        <v>200.179</v>
+      </c>
+      <c r="J43">
+        <v>301.31900000000002</v>
+      </c>
+      <c r="K43">
+        <v>188.96100000000001</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1237.9179999999999</v>
+      </c>
+      <c r="O43">
+        <v>1686.51</v>
+      </c>
+      <c r="P43">
+        <v>570.05100000000004</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>40602</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1365.9079999999999</v>
+      </c>
+      <c r="U43">
+        <v>1329.0650000000001</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>47.789000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>58.576999999999998</v>
+      </c>
+      <c r="D44">
+        <v>519.755</v>
+      </c>
+      <c r="E44">
+        <v>167.45400000000001</v>
+      </c>
+      <c r="F44">
+        <v>328.31599999999997</v>
+      </c>
+      <c r="G44">
+        <v>1847.9749999999999</v>
+      </c>
+      <c r="H44">
+        <v>3350.5309999999999</v>
+      </c>
+      <c r="I44">
+        <v>20.053000000000001</v>
+      </c>
+      <c r="J44">
+        <v>268.21699999999998</v>
+      </c>
+      <c r="K44">
+        <v>270.745</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1444.364</v>
+      </c>
+      <c r="O44">
+        <v>1878.856</v>
+      </c>
+      <c r="P44">
+        <v>624.76400000000001</v>
+      </c>
+      <c r="Q44">
+        <v>25.22</v>
+      </c>
+      <c r="R44">
+        <v>40694</v>
+      </c>
+      <c r="S44">
+        <v>3753</v>
+      </c>
+      <c r="T44">
+        <v>1471.675</v>
+      </c>
+      <c r="U44">
+        <v>1354.2850000000001</v>
+      </c>
+      <c r="V44">
+        <v>-23.518999999999998</v>
+      </c>
+      <c r="W44">
+        <v>-1.6060000000000001</v>
+      </c>
+      <c r="X44">
+        <v>64.114999999999995</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>58.576999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>63.973999999999997</v>
+      </c>
+      <c r="D45">
+        <v>542.77099999999996</v>
+      </c>
+      <c r="E45">
+        <v>178.45099999999999</v>
+      </c>
+      <c r="F45">
+        <v>351.23500000000001</v>
+      </c>
+      <c r="G45">
+        <v>1237.579</v>
+      </c>
+      <c r="H45">
+        <v>2715.1579999999999</v>
+      </c>
+      <c r="I45">
+        <v>210.678</v>
+      </c>
+      <c r="J45">
+        <v>285.76600000000002</v>
+      </c>
+      <c r="K45">
+        <v>311.072</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-44.295000000000002</v>
+      </c>
+      <c r="N45">
+        <v>802.38699999999994</v>
+      </c>
+      <c r="O45">
+        <v>1262.9870000000001</v>
+      </c>
+      <c r="P45">
+        <v>690.74199999999996</v>
+      </c>
+      <c r="Q45">
+        <v>-630.33299999999997</v>
+      </c>
+      <c r="R45">
+        <v>40786</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1452.171</v>
+      </c>
+      <c r="U45">
+        <v>723.952</v>
+      </c>
+      <c r="V45">
+        <v>-605.87800000000004</v>
+      </c>
+      <c r="W45">
+        <v>-1.613</v>
+      </c>
+      <c r="X45">
+        <v>-11.661</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>63.973999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>61.180999999999997</v>
+      </c>
+      <c r="D46">
+        <v>530.505</v>
+      </c>
+      <c r="E46">
+        <v>163.667</v>
+      </c>
+      <c r="F46">
+        <v>344.57400000000001</v>
+      </c>
+      <c r="G46">
+        <v>1190.4100000000001</v>
+      </c>
+      <c r="H46">
+        <v>2614.3389999999999</v>
+      </c>
+      <c r="I46">
+        <v>206.42</v>
+      </c>
+      <c r="J46">
+        <v>203.22200000000001</v>
+      </c>
+      <c r="K46">
+        <v>225.67599999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>807.42399999999998</v>
+      </c>
+      <c r="O46">
+        <v>1180.5909999999999</v>
+      </c>
+      <c r="P46">
+        <v>516.86</v>
+      </c>
+      <c r="Q46">
+        <v>46.908000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40877</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1433.748</v>
+      </c>
+      <c r="U46">
+        <v>770.86</v>
+      </c>
+      <c r="V46">
+        <v>291.81200000000001</v>
+      </c>
+      <c r="W46">
+        <v>-1.556</v>
+      </c>
+      <c r="X46">
+        <v>-200.14400000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>61.180999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>57.92</v>
+      </c>
+      <c r="D47">
+        <v>533.53899999999999</v>
+      </c>
+      <c r="E47">
+        <v>157.191</v>
+      </c>
+      <c r="F47">
+        <v>339.32100000000003</v>
+      </c>
+      <c r="G47">
+        <v>1126.499</v>
+      </c>
+      <c r="H47">
+        <v>2616.971</v>
+      </c>
+      <c r="I47">
+        <v>213.613</v>
+      </c>
+      <c r="J47">
+        <v>177.846</v>
+      </c>
+      <c r="K47">
+        <v>215.71600000000001</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>752.37</v>
+      </c>
+      <c r="O47">
+        <v>1107.7670000000001</v>
+      </c>
+      <c r="P47">
+        <v>476.06700000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-35.127000000000002</v>
+      </c>
+      <c r="R47">
+        <v>40968</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1509.204</v>
+      </c>
+      <c r="U47">
+        <v>735.73299999999995</v>
+      </c>
+      <c r="V47">
+        <v>87.22</v>
+      </c>
+      <c r="W47">
+        <v>-1.571</v>
+      </c>
+      <c r="X47">
+        <v>-56.191000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>5.0860000000000003</v>
+      </c>
+      <c r="D48">
+        <v>597.03200000000004</v>
+      </c>
+      <c r="E48">
+        <v>183.99100000000001</v>
+      </c>
+      <c r="F48">
+        <v>383.96100000000001</v>
+      </c>
+      <c r="G48">
+        <v>1248.739</v>
+      </c>
+      <c r="H48">
+        <v>2688.143</v>
+      </c>
+      <c r="I48">
+        <v>11.817</v>
+      </c>
+      <c r="J48">
+        <v>236.565</v>
+      </c>
+      <c r="K48">
+        <v>215.39099999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>837.28499999999997</v>
+      </c>
+      <c r="O48">
+        <v>1242.8</v>
+      </c>
+      <c r="P48">
+        <v>528.37599999999998</v>
+      </c>
+      <c r="Q48">
+        <v>45.542000000000002</v>
+      </c>
+      <c r="R48">
+        <v>41060</v>
+      </c>
+      <c r="S48">
+        <v>3796</v>
+      </c>
+      <c r="T48">
+        <v>1445.3430000000001</v>
+      </c>
+      <c r="U48">
+        <v>781.27499999999998</v>
+      </c>
+      <c r="V48">
+        <v>53.371000000000002</v>
+      </c>
+      <c r="W48">
+        <v>-1.571</v>
+      </c>
+      <c r="X48">
+        <v>49.81</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>5.0860000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>46.674999999999997</v>
+      </c>
+      <c r="D49">
+        <v>590.28700000000003</v>
+      </c>
+      <c r="E49">
+        <v>180.95699999999999</v>
+      </c>
+      <c r="F49">
+        <v>385.89600000000002</v>
+      </c>
+      <c r="G49">
+        <v>1336.8810000000001</v>
+      </c>
+      <c r="H49">
+        <v>2805.4920000000002</v>
+      </c>
+      <c r="I49">
+        <v>298.97000000000003</v>
+      </c>
+      <c r="J49">
+        <v>285.464</v>
+      </c>
+      <c r="K49">
+        <v>209.25399999999999</v>
+      </c>
+      <c r="L49">
+        <v>-6.1369999999999996</v>
+      </c>
+      <c r="M49">
+        <v>-30.08</v>
+      </c>
+      <c r="N49">
+        <v>1045.9459999999999</v>
+      </c>
+      <c r="O49">
+        <v>1522.472</v>
+      </c>
+      <c r="P49">
+        <v>542.25900000000001</v>
+      </c>
+      <c r="Q49">
+        <v>60.055999999999997</v>
+      </c>
+      <c r="R49">
+        <v>41152</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1283.02</v>
+      </c>
+      <c r="U49">
+        <v>841.33100000000002</v>
+      </c>
+      <c r="V49">
+        <v>68.626999999999995</v>
+      </c>
+      <c r="W49">
+        <v>-1.5780000000000001</v>
+      </c>
+      <c r="X49">
+        <v>5.9829999999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>46.674999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>70.183000000000007</v>
+      </c>
+      <c r="D50">
+        <v>588.53800000000001</v>
+      </c>
+      <c r="E50">
+        <v>184.22399999999999</v>
+      </c>
+      <c r="F50">
+        <v>378.27</v>
+      </c>
+      <c r="G50">
+        <v>1489.92</v>
+      </c>
+      <c r="H50">
+        <v>3428.721</v>
+      </c>
+      <c r="I50">
+        <v>244.499</v>
+      </c>
+      <c r="J50">
+        <v>777.98800000000006</v>
+      </c>
+      <c r="K50">
+        <v>212.399</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1037.47</v>
+      </c>
+      <c r="O50">
+        <v>2053.92</v>
+      </c>
+      <c r="P50">
+        <v>1092.8119999999999</v>
+      </c>
+      <c r="Q50">
+        <v>156.93</v>
+      </c>
+      <c r="R50">
+        <v>41243</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1374.8009999999999</v>
+      </c>
+      <c r="U50">
+        <v>998.26099999999997</v>
+      </c>
+      <c r="V50">
+        <v>56.165999999999997</v>
+      </c>
+      <c r="W50">
+        <v>-1.575</v>
+      </c>
+      <c r="X50">
+        <v>531.33299999999997</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>70.183000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>58.462000000000003</v>
+      </c>
+      <c r="D51">
+        <v>578.74599999999998</v>
+      </c>
+      <c r="E51">
+        <v>167.16800000000001</v>
+      </c>
+      <c r="F51">
+        <v>361.28100000000001</v>
+      </c>
+      <c r="G51">
+        <v>1146.8620000000001</v>
+      </c>
+      <c r="H51">
+        <v>3076.2240000000002</v>
+      </c>
+      <c r="I51">
+        <v>227.36699999999999</v>
+      </c>
+      <c r="J51">
+        <v>883.46199999999999</v>
+      </c>
+      <c r="K51">
+        <v>167.15199999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>673.82799999999997</v>
+      </c>
+      <c r="O51">
+        <v>1790.9860000000001</v>
+      </c>
+      <c r="P51">
+        <v>1122.9459999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-315.30099999999999</v>
+      </c>
+      <c r="R51">
+        <v>41333</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1285.2380000000001</v>
+      </c>
+      <c r="U51">
+        <v>682.96</v>
+      </c>
+      <c r="V51">
+        <v>79.974000000000004</v>
+      </c>
+      <c r="W51">
+        <v>-1.5349999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-341.16800000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>58.462000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>40.805</v>
+      </c>
+      <c r="D52">
+        <v>618.35199999999998</v>
+      </c>
+      <c r="E52">
+        <v>190.59100000000001</v>
+      </c>
+      <c r="F52">
+        <v>388.40100000000001</v>
+      </c>
+      <c r="G52">
+        <v>1214.492</v>
+      </c>
+      <c r="H52">
+        <v>3125.056</v>
+      </c>
+      <c r="I52">
+        <v>18.497</v>
+      </c>
+      <c r="J52">
+        <v>891.13400000000001</v>
+      </c>
+      <c r="K52">
+        <v>187.46100000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>704.11400000000003</v>
+      </c>
+      <c r="O52">
+        <v>1838.4490000000001</v>
+      </c>
+      <c r="P52">
+        <v>1150.93</v>
+      </c>
+      <c r="Q52">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="R52">
+        <v>41425</v>
+      </c>
+      <c r="S52">
+        <v>3954</v>
+      </c>
+      <c r="T52">
+        <v>1286.607</v>
+      </c>
+      <c r="U52">
+        <v>680.47</v>
+      </c>
+      <c r="V52">
+        <v>35.779000000000003</v>
+      </c>
+      <c r="W52">
+        <v>-1.51</v>
+      </c>
+      <c r="X52">
+        <v>-12.625999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="AA52">
+        <v>40.805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>64.643000000000001</v>
+      </c>
+      <c r="D53">
+        <v>629.68499999999995</v>
+      </c>
+      <c r="E53">
+        <v>189.733</v>
+      </c>
+      <c r="F53">
+        <v>398.94</v>
+      </c>
+      <c r="G53">
+        <v>1590.068</v>
+      </c>
+      <c r="H53">
+        <v>3499.49</v>
+      </c>
+      <c r="I53">
+        <v>224.1</v>
+      </c>
+      <c r="J53">
+        <v>1000.383</v>
+      </c>
+      <c r="K53">
+        <v>328.48700000000002</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-331.51499999999999</v>
+      </c>
+      <c r="N53">
+        <v>1044.82</v>
+      </c>
+      <c r="O53">
+        <v>2294.8009999999999</v>
+      </c>
+      <c r="P53">
+        <v>1401.098</v>
+      </c>
+      <c r="Q53">
+        <v>45.417000000000002</v>
+      </c>
+      <c r="R53">
+        <v>41517</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1204.6890000000001</v>
+      </c>
+      <c r="U53">
+        <v>725.88699999999994</v>
+      </c>
+      <c r="V53">
+        <v>-23.187000000000001</v>
+      </c>
+      <c r="W53">
+        <v>-1.456</v>
+      </c>
+      <c r="X53">
+        <v>92.48</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0.99</v>
+      </c>
+      <c r="AA53">
+        <v>64.643000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>73.897000000000006</v>
+      </c>
+      <c r="D54">
+        <v>634.12199999999996</v>
+      </c>
+      <c r="E54">
+        <v>196.45</v>
+      </c>
+      <c r="F54">
+        <v>398.952</v>
+      </c>
+      <c r="G54">
+        <v>2058.308</v>
+      </c>
+      <c r="H54">
+        <v>3981.5639999999999</v>
+      </c>
+      <c r="I54">
+        <v>235.36099999999999</v>
+      </c>
+      <c r="J54">
+        <v>922.54499999999996</v>
+      </c>
+      <c r="K54">
+        <v>446.50799999999998</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1573.0050000000001</v>
+      </c>
+      <c r="O54">
+        <v>2749.88</v>
+      </c>
+      <c r="P54">
+        <v>1441.404</v>
+      </c>
+      <c r="Q54">
+        <v>370.94600000000003</v>
+      </c>
+      <c r="R54">
+        <v>41608</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1231.684</v>
+      </c>
+      <c r="U54">
+        <v>1096.8330000000001</v>
+      </c>
+      <c r="V54">
+        <v>434.87</v>
+      </c>
+      <c r="W54">
+        <v>-1.4379999999999999</v>
+      </c>
+      <c r="X54">
+        <v>-44.962000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>73.897000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>55.121000000000002</v>
+      </c>
+      <c r="D55">
+        <v>616.452</v>
+      </c>
+      <c r="E55">
+        <v>175.73599999999999</v>
+      </c>
+      <c r="F55">
+        <v>383.51499999999999</v>
+      </c>
+      <c r="G55">
+        <v>1533.2550000000001</v>
+      </c>
+      <c r="H55">
+        <v>3455.7150000000001</v>
+      </c>
+      <c r="I55">
+        <v>243.21199999999999</v>
+      </c>
+      <c r="J55">
+        <v>1252.056</v>
+      </c>
+      <c r="K55">
+        <v>262.05500000000001</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>688.00199999999995</v>
+      </c>
+      <c r="O55">
+        <v>2192.0059999999999</v>
+      </c>
+      <c r="P55">
+        <v>1516.462</v>
+      </c>
+      <c r="Q55">
+        <v>-83.272999999999996</v>
+      </c>
+      <c r="R55">
+        <v>41698</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1263.7090000000001</v>
+      </c>
+      <c r="U55">
+        <v>1013.56</v>
+      </c>
+      <c r="V55">
+        <v>-97.281999999999996</v>
+      </c>
+      <c r="W55">
+        <v>-1.4359999999999999</v>
+      </c>
+      <c r="X55">
+        <v>43.45</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AA55">
+        <v>55.121000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>51.625</v>
+      </c>
+      <c r="D56">
+        <v>673.97699999999998</v>
+      </c>
+      <c r="E56">
+        <v>215.38300000000001</v>
+      </c>
+      <c r="F56">
+        <v>420.60399999999998</v>
+      </c>
+      <c r="G56">
+        <v>1643.444</v>
+      </c>
+      <c r="H56">
+        <v>4018.65</v>
+      </c>
+      <c r="I56">
+        <v>13.076000000000001</v>
+      </c>
+      <c r="J56">
+        <v>1376.002</v>
+      </c>
+      <c r="K56">
+        <v>440.12799999999999</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1211.6179999999999</v>
+      </c>
+      <c r="O56">
+        <v>2885.8510000000001</v>
+      </c>
+      <c r="P56">
+        <v>1833.807</v>
+      </c>
+      <c r="Q56">
+        <v>-431.68799999999999</v>
+      </c>
+      <c r="R56">
+        <v>41790</v>
+      </c>
+      <c r="S56">
+        <v>4135</v>
+      </c>
+      <c r="T56">
+        <v>1132.799</v>
+      </c>
+      <c r="U56">
+        <v>581.87199999999996</v>
+      </c>
+      <c r="V56">
+        <v>-120.303</v>
+      </c>
+      <c r="W56">
+        <v>-1.427</v>
+      </c>
+      <c r="X56">
+        <v>127.928</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AA56">
+        <v>51.625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>75.366</v>
+      </c>
+      <c r="D57">
+        <v>704.89499999999998</v>
+      </c>
+      <c r="E57">
+        <v>207.399</v>
+      </c>
+      <c r="F57">
+        <v>445.05599999999998</v>
+      </c>
+      <c r="G57">
+        <v>2006.7239999999999</v>
+      </c>
+      <c r="H57">
+        <v>4339.3559999999998</v>
+      </c>
+      <c r="I57">
+        <v>248.63900000000001</v>
+      </c>
+      <c r="J57">
+        <v>1388.75</v>
+      </c>
+      <c r="K57">
+        <v>652.15700000000004</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-363.67899999999997</v>
+      </c>
+      <c r="N57">
+        <v>1579.4970000000001</v>
+      </c>
+      <c r="O57">
+        <v>3268.8429999999998</v>
+      </c>
+      <c r="P57">
+        <v>2072.1570000000002</v>
+      </c>
+      <c r="Q57">
+        <v>14.012</v>
+      </c>
+      <c r="R57">
+        <v>41882</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1070.5129999999999</v>
+      </c>
+      <c r="U57">
+        <v>595.88400000000001</v>
+      </c>
+      <c r="V57">
+        <v>-63.472999999999999</v>
+      </c>
+      <c r="W57">
+        <v>-1.37</v>
+      </c>
+      <c r="X57">
+        <v>94.084999999999994</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0.128</v>
+      </c>
+      <c r="AA57">
+        <v>75.366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>74.781000000000006</v>
+      </c>
+      <c r="D58">
+        <v>697.29100000000005</v>
+      </c>
+      <c r="E58">
+        <v>197.63</v>
+      </c>
+      <c r="F58">
+        <v>439.495</v>
+      </c>
+      <c r="G58">
+        <v>2025.2550000000001</v>
+      </c>
+      <c r="H58">
+        <v>4541.5870000000004</v>
+      </c>
+      <c r="I58">
+        <v>299.108</v>
+      </c>
+      <c r="J58">
+        <v>1554.125</v>
+      </c>
+      <c r="K58">
+        <v>530.721</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1676.133</v>
+      </c>
+      <c r="O58">
+        <v>3519.3510000000001</v>
+      </c>
+      <c r="P58">
+        <v>2135.6210000000001</v>
+      </c>
+      <c r="Q58">
+        <v>48.585000000000001</v>
+      </c>
+      <c r="R58">
+        <v>41973</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1022.236</v>
+      </c>
+      <c r="U58">
+        <v>644.46900000000005</v>
+      </c>
+      <c r="V58">
+        <v>290.40899999999999</v>
+      </c>
+      <c r="W58">
+        <v>-1.323</v>
+      </c>
+      <c r="X58">
+        <v>10.92</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>74.781000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>62.567999999999998</v>
+      </c>
+      <c r="D59">
+        <v>664.98299999999995</v>
+      </c>
+      <c r="E59">
+        <v>171.47900000000001</v>
+      </c>
+      <c r="F59">
+        <v>414.72800000000001</v>
+      </c>
+      <c r="G59">
+        <v>1593.15</v>
+      </c>
+      <c r="H59">
+        <v>4018.32</v>
+      </c>
+      <c r="I59">
+        <v>280.47199999999998</v>
+      </c>
+      <c r="J59">
+        <v>1546</v>
+      </c>
+      <c r="K59">
+        <v>446.8</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1242.7</v>
+      </c>
+      <c r="O59">
+        <v>3076.692</v>
+      </c>
+      <c r="P59">
+        <v>2059.3000000000002</v>
+      </c>
+      <c r="Q59">
+        <v>-34.320999999999998</v>
+      </c>
+      <c r="R59">
+        <v>42063</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>941.62800000000004</v>
+      </c>
+      <c r="U59">
+        <v>610.14800000000002</v>
+      </c>
+      <c r="V59">
+        <v>120.149</v>
+      </c>
+      <c r="W59">
+        <v>-1.3420000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-94.253</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>10.468999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>62.567999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>65.325000000000003</v>
+      </c>
+      <c r="D60">
+        <v>706.54899999999998</v>
+      </c>
+      <c r="E60">
+        <v>202.93799999999999</v>
+      </c>
+      <c r="F60">
+        <v>452.33199999999999</v>
+      </c>
+      <c r="G60">
+        <v>3289.915</v>
+      </c>
+      <c r="H60">
+        <v>5779.3010000000004</v>
+      </c>
+      <c r="I60">
+        <v>22.835999999999999</v>
+      </c>
+      <c r="J60">
+        <v>1678.2829999999999</v>
+      </c>
+      <c r="K60">
+        <v>592.62900000000002</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3015.1880000000001</v>
+      </c>
+      <c r="O60">
+        <v>4915.7479999999996</v>
+      </c>
+      <c r="P60">
+        <v>2332.6959999999999</v>
+      </c>
+      <c r="Q60">
+        <v>40.591000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42155</v>
+      </c>
+      <c r="S60">
+        <v>4438</v>
+      </c>
+      <c r="T60">
+        <v>863.553</v>
+      </c>
+      <c r="U60">
+        <v>650.73900000000003</v>
+      </c>
+      <c r="V60">
+        <v>77.616</v>
+      </c>
+      <c r="W60">
+        <v>-1.3049999999999999</v>
+      </c>
+      <c r="X60">
+        <v>130.62299999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-10.597</v>
+      </c>
+      <c r="AA60">
+        <v>65.325000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>86.646000000000001</v>
+      </c>
+      <c r="D61">
+        <v>748.79600000000005</v>
+      </c>
+      <c r="E61">
+        <v>215.126</v>
+      </c>
+      <c r="F61">
+        <v>476.13</v>
+      </c>
+      <c r="G61">
+        <v>2747.038</v>
+      </c>
+      <c r="H61">
+        <v>5472.9179999999997</v>
+      </c>
+      <c r="I61">
+        <v>297.50099999999998</v>
+      </c>
+      <c r="J61">
+        <v>1932.028</v>
+      </c>
+      <c r="K61">
+        <v>356.67500000000001</v>
+      </c>
+      <c r="L61">
+        <v>-236.041</v>
+      </c>
+      <c r="M61">
+        <v>-2626.9250000000002</v>
+      </c>
+      <c r="N61">
+        <v>2390.2359999999999</v>
+      </c>
+      <c r="O61">
+        <v>4555.7749999999996</v>
+      </c>
+      <c r="P61">
+        <v>2294.6990000000001</v>
+      </c>
+      <c r="Q61">
+        <v>152.57</v>
+      </c>
+      <c r="R61">
+        <v>42247</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>917.14300000000003</v>
+      </c>
+      <c r="U61">
+        <v>803.30899999999997</v>
+      </c>
+      <c r="V61">
+        <v>513.39200000000005</v>
+      </c>
+      <c r="W61">
+        <v>-1.3049999999999999</v>
+      </c>
+      <c r="X61">
+        <v>-90.114999999999995</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>86.646000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>78.772000000000006</v>
+      </c>
+      <c r="D62">
+        <v>722.35</v>
+      </c>
+      <c r="E62">
+        <v>210.74299999999999</v>
+      </c>
+      <c r="F62">
+        <v>451.78500000000003</v>
+      </c>
+      <c r="G62">
+        <v>2655.8209999999999</v>
+      </c>
+      <c r="H62">
+        <v>5328.1009999999997</v>
+      </c>
+      <c r="I62">
+        <v>302.96499999999997</v>
+      </c>
+      <c r="J62">
+        <v>1915.8030000000001</v>
+      </c>
+      <c r="K62">
+        <v>685.178</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2267.645</v>
+      </c>
+      <c r="O62">
+        <v>4402.0020000000004</v>
+      </c>
+      <c r="P62">
+        <v>2607.1329999999998</v>
+      </c>
+      <c r="Q62">
+        <v>185.148</v>
+      </c>
+      <c r="R62">
+        <v>42338</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>926.09900000000005</v>
+      </c>
+      <c r="U62">
+        <v>988.45699999999999</v>
+      </c>
+      <c r="V62">
+        <v>-59.322000000000003</v>
+      </c>
+      <c r="W62">
+        <v>-1.2969999999999999</v>
+      </c>
+      <c r="X62">
+        <v>275.846</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>78.771000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>59.911000000000001</v>
+      </c>
+      <c r="D63">
+        <v>626.25900000000001</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>378.072</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-135.071</v>
+      </c>
+      <c r="M63">
+        <v>-157</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>40.168999999999997</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>208.21299999999999</v>
+      </c>
+      <c r="W63">
+        <v>-1.2929999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-161.452</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>59.911000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>62.232999999999997</v>
+      </c>
+      <c r="D64">
+        <v>842.64400000000001</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>435.77100000000002</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>360.45</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>41.084000000000003</v>
+      </c>
+      <c r="W64">
+        <v>-1.544</v>
+      </c>
+      <c r="X64">
+        <v>2170.5189999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>37.716999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>62.232999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>55.51</v>
+      </c>
+      <c r="D65">
+        <v>951.88499999999999</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>481.90499999999997</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>22.475000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>118.13500000000001</v>
+      </c>
+      <c r="W65">
+        <v>-1.5389999999999999</v>
+      </c>
+      <c r="X65">
+        <v>-54.22</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AA65">
+        <v>55.51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>36.513460000000002</v>
+      </c>
+      <c r="D66">
+        <v>1355.6047699999999</v>
+      </c>
+      <c r="E66">
+        <v>283.23200000000003</v>
+      </c>
+      <c r="F66">
+        <v>604.20032000000003</v>
+      </c>
+      <c r="G66">
+        <v>3116.0059999999999</v>
+      </c>
+      <c r="H66">
+        <v>10664.35</v>
+      </c>
+      <c r="I66">
+        <v>28.178000000000001</v>
+      </c>
+      <c r="J66">
+        <v>4260.8270000000002</v>
+      </c>
+      <c r="K66">
+        <v>392.072</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2851.9560000000001</v>
+      </c>
+      <c r="O66">
+        <v>7885.0079999999998</v>
+      </c>
+      <c r="P66">
+        <v>4830.6840000000002</v>
+      </c>
+      <c r="Q66">
+        <v>-220.72082</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>8760</v>
+      </c>
+      <c r="T66">
+        <v>2779.3420000000001</v>
+      </c>
+      <c r="U66">
+        <v>1162.779</v>
+      </c>
+      <c r="V66">
+        <v>516.84128999999996</v>
+      </c>
+      <c r="W66">
+        <v>-0.88514000000000004</v>
+      </c>
+      <c r="X66">
+        <v>-2432.71108</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>26.87473</v>
+      </c>
+      <c r="AA66">
+        <v>36.513460000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>48.813000000000002</v>
+      </c>
+      <c r="D67">
+        <v>919.76199999999994</v>
+      </c>
+      <c r="E67">
+        <v>272.00299999999999</v>
+      </c>
+      <c r="F67">
+        <v>463.82600000000002</v>
+      </c>
+      <c r="G67">
+        <v>2399.1799999999998</v>
+      </c>
+      <c r="H67">
+        <v>9959.7160000000003</v>
+      </c>
+      <c r="I67">
+        <v>822.41300000000001</v>
+      </c>
+      <c r="J67">
+        <v>4221.2579999999998</v>
+      </c>
+      <c r="K67">
+        <v>276.40300000000002</v>
+      </c>
+      <c r="L67">
+        <v>-117.789</v>
+      </c>
+      <c r="M67">
+        <v>-189.732</v>
+      </c>
+      <c r="N67">
+        <v>2092.8620000000001</v>
+      </c>
+      <c r="O67">
+        <v>7083.4250000000002</v>
+      </c>
+      <c r="P67">
+        <v>4678.5709999999999</v>
+      </c>
+      <c r="Q67">
+        <v>99.066000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2876.2910000000002</v>
+      </c>
+      <c r="U67">
+        <v>1261.845</v>
+      </c>
+      <c r="V67">
+        <v>293.96499999999997</v>
+      </c>
+      <c r="W67">
+        <v>-1.522</v>
+      </c>
+      <c r="X67">
+        <v>-159.965</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>48.813000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>66.91</v>
+      </c>
+      <c r="D68">
+        <v>962.24</v>
+      </c>
+      <c r="E68">
+        <v>288.15300000000002</v>
+      </c>
+      <c r="F68">
+        <v>493.09100000000001</v>
+      </c>
+      <c r="G68">
+        <v>2516.0709999999999</v>
+      </c>
+      <c r="H68">
+        <v>10036.781000000001</v>
+      </c>
+      <c r="I68">
+        <v>820.75699999999995</v>
+      </c>
+      <c r="J68">
+        <v>4175.4110000000001</v>
+      </c>
+      <c r="K68">
+        <v>318.28399999999999</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2098.4639999999999</v>
+      </c>
+      <c r="O68">
+        <v>7032.143</v>
+      </c>
+      <c r="P68">
+        <v>4582.6840000000002</v>
+      </c>
+      <c r="Q68">
+        <v>-181.26900000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3004.6379999999999</v>
+      </c>
+      <c r="U68">
+        <v>1080.576</v>
+      </c>
+      <c r="V68">
+        <v>-25.904</v>
+      </c>
+      <c r="W68">
+        <v>-2.0289999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-130.98400000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>66.909000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>110.74</v>
+      </c>
+      <c r="D69">
+        <v>1038.9069999999999</v>
+      </c>
+      <c r="E69">
+        <v>296.36599999999999</v>
+      </c>
+      <c r="F69">
+        <v>545.024</v>
+      </c>
+      <c r="G69">
+        <v>3550.297</v>
+      </c>
+      <c r="H69">
+        <v>12281.549000000001</v>
+      </c>
+      <c r="I69">
+        <v>990.86800000000005</v>
+      </c>
+      <c r="J69">
+        <v>4677.91</v>
+      </c>
+      <c r="K69">
+        <v>487.51299999999998</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3123.9110000000001</v>
+      </c>
+      <c r="O69">
+        <v>8586.5959999999995</v>
+      </c>
+      <c r="P69">
+        <v>5260.326</v>
+      </c>
+      <c r="Q69">
+        <v>105.474</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3694.953</v>
+      </c>
+      <c r="U69">
+        <v>1186.05</v>
+      </c>
+      <c r="V69">
+        <v>92.061999999999998</v>
+      </c>
+      <c r="W69">
+        <v>-1.59</v>
+      </c>
+      <c r="X69">
+        <v>624.07299999999998</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>241.96199999999999</v>
+      </c>
+      <c r="D70">
+        <v>1054.2529999999999</v>
+      </c>
+      <c r="E70">
+        <v>301.887</v>
+      </c>
+      <c r="F70">
+        <v>545.18499999999995</v>
+      </c>
+      <c r="G70">
+        <v>4303.5789999999997</v>
+      </c>
+      <c r="H70">
+        <v>12998.069</v>
+      </c>
+      <c r="I70">
+        <v>47.390999999999998</v>
+      </c>
+      <c r="J70">
+        <v>4559.4080000000004</v>
+      </c>
+      <c r="K70">
+        <v>635.16600000000005</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3815.59</v>
+      </c>
+      <c r="O70">
+        <v>9032.8379999999997</v>
+      </c>
+      <c r="P70">
+        <v>5294.8819999999996</v>
+      </c>
+      <c r="Q70">
+        <v>149.80500000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>10000</v>
+      </c>
+      <c r="T70">
+        <v>3965.2310000000002</v>
+      </c>
+      <c r="U70">
+        <v>1335.855</v>
+      </c>
+      <c r="V70">
+        <v>152.26499999999999</v>
+      </c>
+      <c r="W70">
+        <v>-1.591</v>
+      </c>
+      <c r="X70">
+        <v>19.181000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>241.96199999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>91.399000000000001</v>
+      </c>
+      <c r="D71">
+        <v>794.97699999999998</v>
+      </c>
+      <c r="E71">
+        <v>288.101</v>
+      </c>
+      <c r="F71">
+        <v>542.59100000000001</v>
+      </c>
+      <c r="G71">
+        <v>4157.8779999999997</v>
+      </c>
+      <c r="H71">
+        <v>12903.297</v>
+      </c>
+      <c r="I71">
+        <v>939.97900000000004</v>
+      </c>
+      <c r="J71">
+        <v>4176.8509999999997</v>
+      </c>
+      <c r="K71">
+        <v>447.61700000000002</v>
+      </c>
+      <c r="L71">
+        <v>-192.517</v>
+      </c>
+      <c r="M71">
+        <v>-687.82</v>
+      </c>
+      <c r="N71">
+        <v>3908.9189999999999</v>
+      </c>
+      <c r="O71">
+        <v>8763.5069999999996</v>
+      </c>
+      <c r="P71">
+        <v>4731.9470000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-330.03199999999998</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4139.79</v>
+      </c>
+      <c r="U71">
+        <v>1005.823</v>
+      </c>
+      <c r="V71">
+        <v>284.541</v>
+      </c>
+      <c r="W71">
+        <v>-1.593</v>
+      </c>
+      <c r="X71">
+        <v>-571.96100000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>91.399000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>109.069</v>
+      </c>
+      <c r="D72">
+        <v>833.16399999999999</v>
+      </c>
+      <c r="E72">
+        <v>317.22199999999998</v>
+      </c>
+      <c r="F72">
+        <v>568.62</v>
+      </c>
+      <c r="G72">
+        <v>3658.944</v>
+      </c>
+      <c r="H72">
+        <v>12299.877</v>
+      </c>
+      <c r="I72">
+        <v>911.03399999999999</v>
+      </c>
+      <c r="J72">
+        <v>4255.1419999999998</v>
+      </c>
+      <c r="K72">
+        <v>547.34100000000001</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3364.3670000000002</v>
+      </c>
+      <c r="O72">
+        <v>8283.8760000000002</v>
+      </c>
+      <c r="P72">
+        <v>4877.2</v>
+      </c>
+      <c r="Q72">
+        <v>93.706000000000003</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4016.0010000000002</v>
+      </c>
+      <c r="U72">
+        <v>1099.529</v>
+      </c>
+      <c r="V72">
+        <v>222.215</v>
+      </c>
+      <c r="W72">
+        <v>-1.5780000000000001</v>
+      </c>
+      <c r="X72">
+        <v>-41.81</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>109.069</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>176.37</v>
+      </c>
+      <c r="D73">
+        <v>857.67</v>
+      </c>
+      <c r="E73">
+        <v>321.66399999999999</v>
+      </c>
+      <c r="F73">
+        <v>592.65700000000004</v>
+      </c>
+      <c r="G73">
+        <v>4413.99</v>
+      </c>
+      <c r="H73">
+        <v>13839.236000000001</v>
+      </c>
+      <c r="I73">
+        <v>951.33500000000004</v>
+      </c>
+      <c r="J73">
+        <v>4707.51</v>
+      </c>
+      <c r="K73">
+        <v>685.87800000000004</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4267.0709999999999</v>
+      </c>
+      <c r="O73">
+        <v>9663.6679999999997</v>
+      </c>
+      <c r="P73">
+        <v>5486.0770000000002</v>
+      </c>
+      <c r="Q73">
+        <v>-108.925</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4175.5680000000002</v>
+      </c>
+      <c r="U73">
+        <v>990.60400000000004</v>
+      </c>
+      <c r="V73">
+        <v>154.25</v>
+      </c>
+      <c r="W73">
+        <v>-1.579</v>
+      </c>
+      <c r="X73">
+        <v>564.73099999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>176.37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>75.215000000000003</v>
+      </c>
+      <c r="D74">
+        <v>880.55499999999995</v>
+      </c>
+      <c r="E74">
+        <v>348.4</v>
+      </c>
+      <c r="F74">
+        <v>567.48400000000004</v>
+      </c>
+      <c r="G74">
+        <v>3376.2080000000001</v>
+      </c>
+      <c r="H74">
+        <v>13230.773999999999</v>
+      </c>
+      <c r="I74">
+        <v>76.228999999999999</v>
+      </c>
+      <c r="J74">
+        <v>5029.7690000000002</v>
+      </c>
+      <c r="K74">
+        <v>700.48599999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3268.62</v>
+      </c>
+      <c r="O74">
+        <v>9044.4310000000005</v>
+      </c>
+      <c r="P74">
+        <v>5845.33</v>
+      </c>
+      <c r="Q74">
+        <v>220.274</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>11000</v>
+      </c>
+      <c r="T74">
+        <v>4186.3429999999998</v>
+      </c>
+      <c r="U74">
+        <v>1210.8779999999999</v>
+      </c>
+      <c r="V74">
+        <v>445.07600000000002</v>
+      </c>
+      <c r="W74">
+        <v>-1.5820000000000001</v>
+      </c>
+      <c r="X74">
+        <v>335.97</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>75.215000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>112.34099999999999</v>
+      </c>
+      <c r="D75">
+        <v>883.03899999999999</v>
+      </c>
+      <c r="E75">
+        <v>381.608</v>
+      </c>
+      <c r="F75">
+        <v>577.80899999999997</v>
+      </c>
+      <c r="G75">
+        <v>4669.7510000000002</v>
+      </c>
+      <c r="H75">
+        <v>14749.620999999999</v>
+      </c>
+      <c r="I75">
+        <v>957.88599999999997</v>
+      </c>
+      <c r="J75">
+        <v>5170.3770000000004</v>
+      </c>
+      <c r="K75">
+        <v>641.90599999999995</v>
+      </c>
+      <c r="L75">
+        <v>-55.35</v>
+      </c>
+      <c r="M75">
+        <v>-173.06</v>
+      </c>
+      <c r="N75">
+        <v>4516.2219999999998</v>
+      </c>
+      <c r="O75">
+        <v>10607.16</v>
+      </c>
+      <c r="P75">
+        <v>6238.2889999999998</v>
+      </c>
+      <c r="Q75">
+        <v>66.754999999999995</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4142.4610000000002</v>
+      </c>
+      <c r="U75">
+        <v>1277.633</v>
+      </c>
+      <c r="V75">
+        <v>229.72900000000001</v>
+      </c>
+      <c r="W75">
+        <v>-1.571</v>
+      </c>
+      <c r="X75">
+        <v>-49.209000000000003</v>
+      </c>
+      <c r="Y75">
+        <v>230.26</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>112.34099999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>120.459</v>
+      </c>
+      <c r="D76">
+        <v>935.15200000000004</v>
+      </c>
+      <c r="E76">
+        <v>394.60300000000001</v>
+      </c>
+      <c r="F76">
+        <v>632.87599999999998</v>
+      </c>
+      <c r="G76">
+        <v>4547.6790000000001</v>
+      </c>
+      <c r="H76">
+        <v>14584.072</v>
+      </c>
+      <c r="I76">
+        <v>911.80200000000002</v>
+      </c>
+      <c r="J76">
+        <v>5050.4709999999995</v>
+      </c>
+      <c r="K76">
+        <v>736.20899999999995</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4483.5820000000003</v>
+      </c>
+      <c r="O76">
+        <v>10408.956</v>
+      </c>
+      <c r="P76">
+        <v>6211.6989999999996</v>
+      </c>
+      <c r="Q76">
+        <v>-229.90600000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4175.116</v>
+      </c>
+      <c r="U76">
+        <v>1047.7270000000001</v>
+      </c>
+      <c r="V76">
+        <v>17.623999999999999</v>
+      </c>
+      <c r="W76">
+        <v>-1.5660000000000001</v>
+      </c>
+      <c r="X76">
+        <v>-163.334</v>
+      </c>
+      <c r="Y76">
+        <v>224.751</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>120.458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>95.042000000000002</v>
+      </c>
+      <c r="D77">
+        <v>1105.941</v>
+      </c>
+      <c r="E77">
+        <v>868.13300000000004</v>
+      </c>
+      <c r="F77">
+        <v>678.221</v>
+      </c>
+      <c r="G77">
+        <v>4992.5680000000002</v>
+      </c>
+      <c r="H77">
+        <v>45212.046999999999</v>
+      </c>
+      <c r="I77">
+        <v>1565.672</v>
+      </c>
+      <c r="J77">
+        <v>9015.09</v>
+      </c>
+      <c r="K77">
+        <v>547.62400000000002</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4283.152</v>
+      </c>
+      <c r="O77">
+        <v>17256.329000000002</v>
+      </c>
+      <c r="P77">
+        <v>10125.33</v>
+      </c>
+      <c r="Q77">
+        <v>1079.8889999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>27955.718000000001</v>
+      </c>
+      <c r="U77">
+        <v>2127.616</v>
+      </c>
+      <c r="V77">
+        <v>1102.0360000000001</v>
+      </c>
+      <c r="W77">
+        <v>-1.59</v>
+      </c>
+      <c r="X77">
+        <v>322.41899999999998</v>
+      </c>
+      <c r="Y77">
+        <v>440.96300000000002</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>95.043999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>102.771</v>
+      </c>
+      <c r="D78">
+        <v>1987.761</v>
+      </c>
+      <c r="E78">
+        <v>895.23199999999997</v>
+      </c>
+      <c r="F78">
+        <v>1005.883</v>
+      </c>
+      <c r="G78">
+        <v>4366.4480000000003</v>
+      </c>
+      <c r="H78">
+        <v>44480.161999999997</v>
+      </c>
+      <c r="I78">
+        <v>148.084</v>
+      </c>
+      <c r="J78">
+        <v>9109.5419999999995</v>
+      </c>
+      <c r="K78">
+        <v>463.23700000000002</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3579.346</v>
+      </c>
+      <c r="O78">
+        <v>16425.172999999999</v>
+      </c>
+      <c r="P78">
+        <v>10120.642</v>
+      </c>
+      <c r="Q78">
+        <v>-449.34300000000002</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>24000</v>
+      </c>
+      <c r="T78">
+        <v>28054.989000000001</v>
+      </c>
+      <c r="U78">
+        <v>1678.2729999999999</v>
+      </c>
+      <c r="V78">
+        <v>41.889000000000003</v>
+      </c>
+      <c r="W78">
+        <v>-58.771000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-138.55000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>423.91399999999999</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>102.771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>143.57499999999999</v>
+      </c>
+      <c r="D79">
+        <v>1903.598</v>
+      </c>
+      <c r="E79">
+        <v>799.798</v>
+      </c>
+      <c r="F79">
+        <v>969.72699999999998</v>
+      </c>
+      <c r="G79">
+        <v>4069.67</v>
+      </c>
+      <c r="H79">
+        <v>43849.597999999998</v>
+      </c>
+      <c r="I79">
+        <v>1396.0740000000001</v>
+      </c>
+      <c r="J79">
+        <v>9689.6389999999992</v>
+      </c>
+      <c r="K79">
+        <v>375.18200000000002</v>
+      </c>
+      <c r="L79">
+        <v>-78.091999999999999</v>
+      </c>
+      <c r="M79">
+        <v>-110.97799999999999</v>
+      </c>
+      <c r="N79">
+        <v>3036.279</v>
+      </c>
+      <c r="O79">
+        <v>16329.165000000001</v>
+      </c>
+      <c r="P79">
+        <v>10171.535</v>
+      </c>
+      <c r="Q79">
+        <v>121.788</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>27520.433000000001</v>
+      </c>
+      <c r="U79">
+        <v>1800.0609999999999</v>
+      </c>
+      <c r="V79">
+        <v>436.57400000000001</v>
+      </c>
+      <c r="W79">
+        <v>-58.279000000000003</v>
+      </c>
+      <c r="X79">
+        <v>-77.480999999999995</v>
+      </c>
+      <c r="Y79">
+        <v>30.797999999999998</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>143.57499999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>37.328000000000003</v>
+      </c>
+      <c r="D80">
+        <v>1671.952</v>
+      </c>
+      <c r="E80">
+        <v>788.697</v>
+      </c>
+      <c r="F80">
+        <v>778.21199999999999</v>
+      </c>
+      <c r="G80">
+        <v>4351.3410000000003</v>
+      </c>
+      <c r="H80">
+        <v>44001.476999999999</v>
+      </c>
+      <c r="I80">
+        <v>1369.3409999999999</v>
+      </c>
+      <c r="J80">
+        <v>8475.6059999999998</v>
+      </c>
+      <c r="K80">
+        <v>439.47399999999999</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4229.3429999999998</v>
+      </c>
+      <c r="O80">
+        <v>16368.487999999999</v>
+      </c>
+      <c r="P80">
+        <v>9799.7980000000007</v>
+      </c>
+      <c r="Q80">
+        <v>25.564</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>27632.989000000001</v>
+      </c>
+      <c r="U80">
+        <v>1825.625</v>
+      </c>
+      <c r="V80">
+        <v>523.71500000000003</v>
+      </c>
+      <c r="W80">
+        <v>-58.311999999999998</v>
+      </c>
+      <c r="X80">
+        <v>-432.60899999999998</v>
+      </c>
+      <c r="Y80">
+        <v>47.14</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>37.331000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>220.97300000000001</v>
+      </c>
+      <c r="D81">
+        <v>1917.8150000000001</v>
+      </c>
+      <c r="E81">
+        <v>822.03300000000002</v>
+      </c>
+      <c r="F81">
+        <v>1016.894</v>
+      </c>
+      <c r="G81">
+        <v>4968.6499999999996</v>
+      </c>
+      <c r="H81">
+        <v>44549.781999999999</v>
+      </c>
+      <c r="I81">
+        <v>1460.787</v>
+      </c>
+      <c r="J81">
+        <v>8445.9220000000005</v>
+      </c>
+      <c r="K81">
+        <v>439.37099999999998</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4415.2539999999999</v>
+      </c>
+      <c r="O81">
+        <v>16585.939999999999</v>
+      </c>
+      <c r="P81">
+        <v>9784.5969999999998</v>
+      </c>
+      <c r="Q81">
+        <v>395.197</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>27963.842000000001</v>
+      </c>
+      <c r="U81">
+        <v>2220.8220000000001</v>
+      </c>
+      <c r="V81">
+        <v>584.471</v>
+      </c>
+      <c r="W81">
+        <v>-58.433999999999997</v>
+      </c>
+      <c r="X81">
+        <v>-84.545000000000002</v>
+      </c>
+      <c r="Y81">
+        <v>65.141999999999996</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>220.971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44196</v>
       </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82">
         <v>182.64400000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1930.193</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>794.17200000000003</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1116.3979999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4592.3599999999997</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>44201.544999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>128.721</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>8474.125</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>358.69799999999998</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>4549.0910000000003</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>16714.501</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>10271.004000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-131.05099999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>24000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>27487.044000000002</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1945.8679999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>769.39</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-58.191000000000003</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-951.50699999999995</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>505.78800000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>182.64400000000001</v>
       </c>
     </row>
